--- a/private/uploads/uploadFileTest.xlsx
+++ b/private/uploads/uploadFileTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natan.morote\Documents\accuarium-back\private\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090C61E2-BE34-4CCD-9397-80F37F6CA671}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C59C8E-56BC-4F51-836C-61ACE01226FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="3384" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species" sheetId="1" r:id="rId1"/>
@@ -170,9 +170,6 @@
     <t>gouramis</t>
   </si>
   <si>
-    <t>gh</t>
-  </si>
-  <si>
     <t>bottom</t>
   </si>
   <si>
@@ -588,13 +585,16 @@
   </si>
   <si>
     <t>ppm</t>
+  </si>
+  <si>
+    <t>gH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -634,10 +634,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="11"/>
@@ -685,7 +681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -694,14 +690,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" textRotation="135"/>
     </xf>
@@ -937,9 +932,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomLeft" activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1089,10 +1084,10 @@
       <c r="H2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>42</v>
       </c>
       <c r="K2" s="7">
@@ -1111,22 +1106,22 @@
       <c r="P2" s="7">
         <v>8</v>
       </c>
-      <c r="Q2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="R2" s="9">
+      <c r="Q2" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="R2" s="8">
         <v>5</v>
       </c>
-      <c r="S2" s="9">
+      <c r="S2" s="8">
         <v>19</v>
       </c>
-      <c r="T2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="U2" s="9">
+      <c r="T2" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="U2" s="8">
         <v>2</v>
       </c>
-      <c r="V2" s="9">
+      <c r="V2" s="8">
         <v>10</v>
       </c>
       <c r="W2" s="7">
@@ -1135,31 +1130,31 @@
       <c r="X2" s="7">
         <v>100</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="AC2" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>35</v>
@@ -1167,10 +1162,10 @@
       <c r="H3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>42</v>
       </c>
       <c r="K3" s="7">
@@ -1191,22 +1186,22 @@
       <c r="P3" s="7">
         <v>7.5</v>
       </c>
-      <c r="Q3" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="R3" s="9">
+      <c r="Q3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" s="8">
         <v>100</v>
       </c>
-      <c r="S3" s="9">
+      <c r="S3" s="8">
         <v>150</v>
       </c>
-      <c r="T3" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="U3" s="11">
+      <c r="T3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="V3" s="11">
+      <c r="U3" s="10">
+        <v>50</v>
+      </c>
+      <c r="V3" s="10">
         <v>125</v>
       </c>
       <c r="W3" s="7">
@@ -1215,31 +1210,31 @@
       <c r="X3" s="7">
         <v>100</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Y3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z3" s="9" t="s">
-        <v>45</v>
-      </c>
       <c r="AC3" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>35</v>
@@ -1247,10 +1242,10 @@
       <c r="H4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>42</v>
       </c>
       <c r="K4" s="7">
@@ -1259,34 +1254,34 @@
       <c r="L4" s="7">
         <v>7</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="8">
         <v>15</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="8">
         <v>25</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="8">
         <v>6</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="8">
         <v>8</v>
       </c>
-      <c r="Q4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="R4" s="9">
+      <c r="Q4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="R4" s="8">
         <v>30</v>
       </c>
-      <c r="S4" s="9">
+      <c r="S4" s="8">
         <v>60</v>
       </c>
-      <c r="T4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="U4" s="9">
+      <c r="T4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="U4" s="8">
         <v>15</v>
       </c>
-      <c r="V4" s="9">
+      <c r="V4" s="8">
         <v>80</v>
       </c>
       <c r="W4" s="7">
@@ -1295,31 +1290,31 @@
       <c r="X4" s="7">
         <v>100</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="Y4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z4" s="9" t="s">
-        <v>45</v>
-      </c>
       <c r="AC4" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="E5" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>35</v>
@@ -1327,16 +1322,16 @@
       <c r="H5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>42</v>
       </c>
       <c r="K5" s="7">
         <v>4.5</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <v>8</v>
       </c>
       <c r="M5" s="7">
@@ -1359,31 +1354,31 @@
       <c r="X5" s="7">
         <v>100</v>
       </c>
-      <c r="Y5" s="9" t="s">
+      <c r="Y5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z5" s="9" t="s">
-        <v>45</v>
-      </c>
       <c r="AC5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="F6" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>35</v>
@@ -1391,10 +1386,10 @@
       <c r="H6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>42</v>
       </c>
       <c r="K6" s="7">
@@ -1403,10 +1398,10 @@
       <c r="L6" s="7">
         <v>7</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="8">
         <v>15</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="8">
         <v>25</v>
       </c>
       <c r="O6" s="7">
@@ -1423,31 +1418,31 @@
       <c r="X6" s="7">
         <v>100</v>
       </c>
-      <c r="Y6" s="9" t="s">
+      <c r="Y6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z6" s="9" t="s">
-        <v>45</v>
-      </c>
       <c r="AC6" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>35</v>
@@ -1455,22 +1450,22 @@
       <c r="H7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>42</v>
       </c>
       <c r="K7" s="7">
         <v>4.5</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="8">
         <v>8</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="8">
         <v>15</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="8">
         <v>25</v>
       </c>
       <c r="O7" s="7">
@@ -1487,14 +1482,14 @@
       <c r="X7" s="7">
         <v>100</v>
       </c>
-      <c r="Y7" s="9" t="s">
+      <c r="Y7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z7" s="9" t="s">
-        <v>45</v>
-      </c>
       <c r="AC7" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1533,362 +1528,362 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+    </row>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-    </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>74</v>
+      <c r="B10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="9" t="s">
+      <c r="C20" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="9" t="s">
+    </row>
+    <row r="22" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="10"/>
+      <c r="C22" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
-      <c r="C22" s="10" t="s">
+    <row r="23" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="8" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="9" t="s">
+    </row>
+    <row r="24" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="9" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="10" t="s">
+      <c r="G24" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G24" s="7" t="s">
+    </row>
+    <row r="25" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="8" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="9" t="s">
+      <c r="G25" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G26" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G27" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G28" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G29" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G30" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G31" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G32" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G33" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G34" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G35" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G36" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G37" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G38" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G39" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G40" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G41" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G42" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G43" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G44" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G45" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G46" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G47" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G48" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G49" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G50" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G51" s="8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G51" s="9" t="s">
+    <row r="52" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G52" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G52" s="9" t="s">
+    <row r="53" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G53" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G53" s="9" t="s">
+    <row r="54" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G54" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G54" s="9" t="s">
+    <row r="55" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G55" s="8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="55" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G55" s="9" t="s">
+    <row r="56" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G56" s="8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G56" s="9" t="s">
+    <row r="57" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G57" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G57" s="9" t="s">
+    <row r="58" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G58" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G58" s="9" t="s">
+    <row r="59" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G59" s="8" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="59" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G59" s="9" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="60" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2850,152 +2845,152 @@
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="9" t="s">
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="9" t="s">
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="9" t="s">
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="9" t="s">
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="9" t="s">
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="9" t="s">
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="9" t="s">
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="9" t="s">
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="9" t="s">
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C11" s="9" t="s">
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="9" t="s">
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="9" t="s">
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C15" s="9" t="s">
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="9" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="9" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="8" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C24" s="9" t="s">
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C25" s="9" t="s">
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3015,50 +3010,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4079,3776 +4074,3776 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="str">
+      <c r="A1" s="13" t="str">
         <f>species!B1</f>
         <v>scientificName</v>
       </c>
-      <c r="B1" s="15" t="str">
+      <c r="B1" s="14" t="str">
         <f>species!B2</f>
         <v>badis badis</v>
       </c>
-      <c r="C1" s="16" t="str">
+      <c r="C1" s="15" t="str">
         <f>species!B3</f>
         <v>badis buxar</v>
       </c>
-      <c r="D1" s="16" t="str">
+      <c r="D1" s="15" t="str">
         <f>species!B4</f>
         <v>badis bengalensis</v>
       </c>
-      <c r="E1" s="16" t="str">
+      <c r="E1" s="15" t="str">
         <f>species!B5</f>
         <v>microctenopoma ansorgii</v>
       </c>
-      <c r="F1" s="15" t="str">
+      <c r="F1" s="14" t="str">
         <f>species!B6</f>
         <v>badis asamensis</v>
       </c>
-      <c r="G1" s="16" t="str">
+      <c r="G1" s="15" t="str">
         <f>species!B7</f>
         <v>badis burmanicus</v>
       </c>
-      <c r="H1" s="16" t="e">
+      <c r="H1" s="15" t="e">
         <f>species!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I1" s="16" t="e">
+      <c r="I1" s="15" t="e">
         <f>species!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J1" s="16" t="e">
+      <c r="J1" s="15" t="e">
         <f>species!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K1" s="16" t="e">
+      <c r="K1" s="15" t="e">
         <f>species!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L1" s="15" t="e">
+      <c r="L1" s="14" t="e">
         <f>species!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="M1" s="16" t="e">
+      <c r="M1" s="15" t="e">
         <f>species!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="str">
+      <c r="A2" s="16" t="str">
         <f>species!B2</f>
         <v>badis badis</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="18">
+      <c r="B2" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="17">
         <v>1</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="17">
         <v>1</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <v>2</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="17">
         <v>1</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="17">
         <v>1</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="17">
         <v>2</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="17">
         <v>1</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="17">
         <v>2</v>
       </c>
-      <c r="K2" s="18">
+      <c r="K2" s="17">
         <v>2</v>
       </c>
-      <c r="L2" s="18">
+      <c r="L2" s="17">
         <v>2</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="str">
+      <c r="A3" s="16" t="str">
         <f>species!B3</f>
         <v>badis buxar</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>0</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="D3" s="18">
+      <c r="C3" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="17">
         <v>2</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <v>1</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="17">
         <v>1</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="17">
         <v>1</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="17">
         <v>1</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="17">
         <v>0</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="17">
         <v>0</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="17">
         <v>0</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="17">
         <v>0</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="str">
+      <c r="A4" s="16" t="str">
         <f>species!B4</f>
         <v>badis bengalensis</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>1</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>2</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="E4" s="18">
+      <c r="D4" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="17">
         <v>0</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="17">
         <v>0</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="17">
         <v>0</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="17">
         <v>0</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="17">
         <v>0</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="17">
         <v>1</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="17">
         <v>1</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="17">
         <v>1</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="str">
+      <c r="A5" s="16" t="str">
         <f>species!B5</f>
         <v>microctenopoma ansorgii</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>1</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <v>1</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>1</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="F5" s="18">
+      <c r="E5" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5" s="17">
         <v>0</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="17">
         <v>1</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="17">
         <v>0</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="17">
         <v>0</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="17">
         <v>0</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="17">
         <v>0</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="17">
         <v>0</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="str">
+      <c r="A6" s="16" t="str">
         <f>species!B6</f>
         <v>badis asamensis</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>1</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <v>1</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <v>1</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <v>1</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="G6" s="18">
+      <c r="F6" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="G6" s="17">
         <v>1</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="17">
         <v>1</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="17">
         <v>1</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="17">
         <v>1</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="17">
         <v>1</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="17">
         <v>1</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="str">
+      <c r="A7" s="16" t="str">
         <f>species!B7</f>
         <v>badis burmanicus</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>1</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <v>1</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <v>1</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <v>1</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="17">
         <v>1</v>
       </c>
-      <c r="G7" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="H7" s="18">
+      <c r="G7" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="H7" s="17">
         <v>1</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="17">
         <v>1</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="17">
         <v>0</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="17">
         <v>0</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="17">
         <v>0</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="e">
+      <c r="A8" s="16" t="e">
         <f>species!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>2</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>2</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <v>2</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <v>2</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="17">
         <v>2</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <v>2</v>
       </c>
-      <c r="H8" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="I8" s="18">
+      <c r="H8" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="I8" s="17">
         <v>1</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="17">
         <v>1</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="17">
         <v>1</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="17">
         <v>1</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="e">
+      <c r="A9" s="16" t="e">
         <f>species!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>2</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <v>2</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>2</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <v>2</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <v>2</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="17">
         <v>2</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="17">
         <v>2</v>
       </c>
-      <c r="I9" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="J9" s="18">
+      <c r="I9" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="J9" s="17">
         <v>2</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="17">
         <v>2</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="17">
         <v>2</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="e">
+      <c r="A10" s="16" t="e">
         <f>species!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <v>1</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <v>1</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="17">
         <v>1</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="17">
         <v>1</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="17">
         <v>1</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="17">
         <v>1</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="17">
         <v>1</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="17">
         <v>1</v>
       </c>
-      <c r="J10" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="K10" s="18">
+      <c r="J10" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="K10" s="17">
         <v>0</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="17">
         <v>0</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="e">
+      <c r="A11" s="16" t="e">
         <f>species!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <v>1</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <v>1</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="17">
         <v>1</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="17">
         <v>1</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="17">
         <v>1</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="17">
         <v>1</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="17">
         <v>1</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="17">
         <v>1</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="17">
         <v>1</v>
       </c>
-      <c r="K11" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="L11" s="18">
+      <c r="K11" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="L11" s="17">
         <v>0</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="e">
+      <c r="A12" s="16" t="e">
         <f>species!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <v>0</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="17">
         <v>0</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="17">
         <v>0</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="17">
         <v>0</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="17">
         <v>0</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <v>0</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="17">
         <v>0</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="17">
         <v>0</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="17">
         <v>0</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="17">
         <v>0</v>
       </c>
-      <c r="L12" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="M12" s="9">
+      <c r="L12" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="M12" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="e">
+      <c r="A13" s="16" t="e">
         <f>species!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <v>0</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <v>0</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="17">
         <v>0</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <v>0</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="17">
         <v>0</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="17">
         <v>0</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="17">
         <v>0</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="17">
         <v>0</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="17">
         <v>0</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="17">
         <v>0</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="17">
         <v>0</v>
       </c>
-      <c r="M13" s="18" t="s">
-        <v>181</v>
+      <c r="M13" s="17" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
+      <c r="A37" s="16"/>
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
+      <c r="A38" s="16"/>
     </row>
     <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
+      <c r="A39" s="16"/>
     </row>
     <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
+      <c r="A40" s="16"/>
     </row>
     <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
+      <c r="A41" s="16"/>
     </row>
     <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
+      <c r="A42" s="16"/>
     </row>
     <row r="43" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
+      <c r="A43" s="16"/>
     </row>
     <row r="44" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
+      <c r="A44" s="16"/>
     </row>
     <row r="45" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="17"/>
+      <c r="A45" s="16"/>
     </row>
     <row r="46" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="17"/>
+      <c r="A46" s="16"/>
     </row>
     <row r="47" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="17"/>
+      <c r="A47" s="16"/>
     </row>
     <row r="48" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="17"/>
+      <c r="A48" s="16"/>
     </row>
     <row r="49" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="17"/>
+      <c r="A49" s="16"/>
     </row>
     <row r="50" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="17"/>
+      <c r="A50" s="16"/>
     </row>
     <row r="51" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="17"/>
+      <c r="A51" s="16"/>
     </row>
     <row r="52" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="17"/>
+      <c r="A52" s="16"/>
     </row>
     <row r="53" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="17"/>
+      <c r="A53" s="16"/>
     </row>
     <row r="54" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="17"/>
+      <c r="A54" s="16"/>
     </row>
     <row r="55" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="17"/>
+      <c r="A55" s="16"/>
     </row>
     <row r="56" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="17"/>
+      <c r="A56" s="16"/>
     </row>
     <row r="57" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="17"/>
+      <c r="A57" s="16"/>
     </row>
     <row r="58" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="17"/>
+      <c r="A58" s="16"/>
     </row>
     <row r="59" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="17"/>
+      <c r="A59" s="16"/>
     </row>
     <row r="60" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A60" s="17"/>
+      <c r="A60" s="16"/>
     </row>
     <row r="61" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="17"/>
+      <c r="A61" s="16"/>
     </row>
     <row r="62" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="17"/>
+      <c r="A62" s="16"/>
     </row>
     <row r="63" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="17"/>
+      <c r="A63" s="16"/>
     </row>
     <row r="64" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A64" s="17"/>
+      <c r="A64" s="16"/>
     </row>
     <row r="65" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A65" s="17"/>
+      <c r="A65" s="16"/>
     </row>
     <row r="66" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A66" s="17"/>
+      <c r="A66" s="16"/>
     </row>
     <row r="67" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="17"/>
+      <c r="A67" s="16"/>
     </row>
     <row r="68" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A68" s="17"/>
+      <c r="A68" s="16"/>
     </row>
     <row r="69" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A69" s="17"/>
+      <c r="A69" s="16"/>
     </row>
     <row r="70" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A70" s="17"/>
+      <c r="A70" s="16"/>
     </row>
     <row r="71" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A71" s="17"/>
+      <c r="A71" s="16"/>
     </row>
     <row r="72" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A72" s="17"/>
+      <c r="A72" s="16"/>
     </row>
     <row r="73" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A73" s="17"/>
+      <c r="A73" s="16"/>
     </row>
     <row r="74" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A74" s="17"/>
+      <c r="A74" s="16"/>
     </row>
     <row r="75" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A75" s="17"/>
+      <c r="A75" s="16"/>
     </row>
     <row r="76" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A76" s="17"/>
+      <c r="A76" s="16"/>
     </row>
     <row r="77" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A77" s="17"/>
+      <c r="A77" s="16"/>
     </row>
     <row r="78" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A78" s="17"/>
+      <c r="A78" s="16"/>
     </row>
     <row r="79" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A79" s="17"/>
+      <c r="A79" s="16"/>
     </row>
     <row r="80" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A80" s="17"/>
+      <c r="A80" s="16"/>
     </row>
     <row r="81" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A81" s="17"/>
+      <c r="A81" s="16"/>
     </row>
     <row r="82" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A82" s="17"/>
+      <c r="A82" s="16"/>
     </row>
     <row r="83" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A83" s="17"/>
+      <c r="A83" s="16"/>
     </row>
     <row r="84" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A84" s="17"/>
+      <c r="A84" s="16"/>
     </row>
     <row r="85" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A85" s="17"/>
+      <c r="A85" s="16"/>
     </row>
     <row r="86" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A86" s="17"/>
+      <c r="A86" s="16"/>
     </row>
     <row r="87" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A87" s="17"/>
+      <c r="A87" s="16"/>
     </row>
     <row r="88" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A88" s="17"/>
+      <c r="A88" s="16"/>
     </row>
     <row r="89" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A89" s="17"/>
+      <c r="A89" s="16"/>
     </row>
     <row r="90" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A90" s="17"/>
+      <c r="A90" s="16"/>
     </row>
     <row r="91" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A91" s="17"/>
+      <c r="A91" s="16"/>
     </row>
     <row r="92" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A92" s="17"/>
+      <c r="A92" s="16"/>
     </row>
     <row r="93" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A93" s="17"/>
+      <c r="A93" s="16"/>
     </row>
     <row r="94" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A94" s="17"/>
+      <c r="A94" s="16"/>
     </row>
     <row r="95" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A95" s="17"/>
+      <c r="A95" s="16"/>
     </row>
     <row r="96" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A96" s="17"/>
+      <c r="A96" s="16"/>
     </row>
     <row r="97" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A97" s="17"/>
+      <c r="A97" s="16"/>
     </row>
     <row r="98" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A98" s="17"/>
+      <c r="A98" s="16"/>
     </row>
     <row r="99" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A99" s="17"/>
+      <c r="A99" s="16"/>
     </row>
     <row r="100" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A100" s="17"/>
+      <c r="A100" s="16"/>
     </row>
     <row r="101" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A101" s="17"/>
+      <c r="A101" s="16"/>
     </row>
     <row r="102" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A102" s="17"/>
+      <c r="A102" s="16"/>
     </row>
     <row r="103" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A103" s="17"/>
+      <c r="A103" s="16"/>
     </row>
     <row r="104" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A104" s="17"/>
+      <c r="A104" s="16"/>
     </row>
     <row r="105" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A105" s="17"/>
+      <c r="A105" s="16"/>
     </row>
     <row r="106" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A106" s="17"/>
+      <c r="A106" s="16"/>
     </row>
     <row r="107" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A107" s="17"/>
+      <c r="A107" s="16"/>
     </row>
     <row r="108" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A108" s="17"/>
+      <c r="A108" s="16"/>
     </row>
     <row r="109" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A109" s="17"/>
+      <c r="A109" s="16"/>
     </row>
     <row r="110" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A110" s="17"/>
+      <c r="A110" s="16"/>
     </row>
     <row r="111" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A111" s="17"/>
+      <c r="A111" s="16"/>
     </row>
     <row r="112" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A112" s="17"/>
+      <c r="A112" s="16"/>
     </row>
     <row r="113" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A113" s="17"/>
+      <c r="A113" s="16"/>
     </row>
     <row r="114" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A114" s="17"/>
+      <c r="A114" s="16"/>
     </row>
     <row r="115" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A115" s="17"/>
+      <c r="A115" s="16"/>
     </row>
     <row r="116" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A116" s="17"/>
+      <c r="A116" s="16"/>
     </row>
     <row r="117" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A117" s="17"/>
+      <c r="A117" s="16"/>
     </row>
     <row r="118" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A118" s="17"/>
+      <c r="A118" s="16"/>
     </row>
     <row r="119" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A119" s="17"/>
+      <c r="A119" s="16"/>
     </row>
     <row r="120" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A120" s="17"/>
+      <c r="A120" s="16"/>
     </row>
     <row r="121" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A121" s="17"/>
+      <c r="A121" s="16"/>
     </row>
     <row r="122" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A122" s="17"/>
+      <c r="A122" s="16"/>
     </row>
     <row r="123" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A123" s="17"/>
+      <c r="A123" s="16"/>
     </row>
     <row r="124" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A124" s="17"/>
+      <c r="A124" s="16"/>
     </row>
     <row r="125" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A125" s="17"/>
+      <c r="A125" s="16"/>
     </row>
     <row r="126" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A126" s="17"/>
+      <c r="A126" s="16"/>
     </row>
     <row r="127" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A127" s="17"/>
+      <c r="A127" s="16"/>
     </row>
     <row r="128" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A128" s="17"/>
+      <c r="A128" s="16"/>
     </row>
     <row r="129" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A129" s="17"/>
+      <c r="A129" s="16"/>
     </row>
     <row r="130" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A130" s="17"/>
+      <c r="A130" s="16"/>
     </row>
     <row r="131" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A131" s="17"/>
+      <c r="A131" s="16"/>
     </row>
     <row r="132" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A132" s="17"/>
+      <c r="A132" s="16"/>
     </row>
     <row r="133" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A133" s="17"/>
+      <c r="A133" s="16"/>
     </row>
     <row r="134" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A134" s="17"/>
+      <c r="A134" s="16"/>
     </row>
     <row r="135" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A135" s="17"/>
+      <c r="A135" s="16"/>
     </row>
     <row r="136" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A136" s="17"/>
+      <c r="A136" s="16"/>
     </row>
     <row r="137" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A137" s="17"/>
+      <c r="A137" s="16"/>
     </row>
     <row r="138" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A138" s="17"/>
+      <c r="A138" s="16"/>
     </row>
     <row r="139" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A139" s="17"/>
+      <c r="A139" s="16"/>
     </row>
     <row r="140" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A140" s="17"/>
+      <c r="A140" s="16"/>
     </row>
     <row r="141" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A141" s="17"/>
+      <c r="A141" s="16"/>
     </row>
     <row r="142" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A142" s="17"/>
+      <c r="A142" s="16"/>
     </row>
     <row r="143" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A143" s="17"/>
+      <c r="A143" s="16"/>
     </row>
     <row r="144" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A144" s="17"/>
+      <c r="A144" s="16"/>
     </row>
     <row r="145" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A145" s="17"/>
+      <c r="A145" s="16"/>
     </row>
     <row r="146" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A146" s="17"/>
+      <c r="A146" s="16"/>
     </row>
     <row r="147" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A147" s="17"/>
+      <c r="A147" s="16"/>
     </row>
     <row r="148" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A148" s="17"/>
+      <c r="A148" s="16"/>
     </row>
     <row r="149" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A149" s="17"/>
+      <c r="A149" s="16"/>
     </row>
     <row r="150" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A150" s="17"/>
+      <c r="A150" s="16"/>
     </row>
     <row r="151" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A151" s="17"/>
+      <c r="A151" s="16"/>
     </row>
     <row r="152" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A152" s="17"/>
+      <c r="A152" s="16"/>
     </row>
     <row r="153" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A153" s="17"/>
+      <c r="A153" s="16"/>
     </row>
     <row r="154" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A154" s="17"/>
+      <c r="A154" s="16"/>
     </row>
     <row r="155" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A155" s="17"/>
+      <c r="A155" s="16"/>
     </row>
     <row r="156" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A156" s="17"/>
+      <c r="A156" s="16"/>
     </row>
     <row r="157" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A157" s="17"/>
+      <c r="A157" s="16"/>
     </row>
     <row r="158" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A158" s="17"/>
+      <c r="A158" s="16"/>
     </row>
     <row r="159" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A159" s="17"/>
+      <c r="A159" s="16"/>
     </row>
     <row r="160" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A160" s="17"/>
+      <c r="A160" s="16"/>
     </row>
     <row r="161" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A161" s="17"/>
+      <c r="A161" s="16"/>
     </row>
     <row r="162" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A162" s="17"/>
+      <c r="A162" s="16"/>
     </row>
     <row r="163" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A163" s="17"/>
+      <c r="A163" s="16"/>
     </row>
     <row r="164" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A164" s="17"/>
+      <c r="A164" s="16"/>
     </row>
     <row r="165" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A165" s="17"/>
+      <c r="A165" s="16"/>
     </row>
     <row r="166" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A166" s="17"/>
+      <c r="A166" s="16"/>
     </row>
     <row r="167" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A167" s="17"/>
+      <c r="A167" s="16"/>
     </row>
     <row r="168" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A168" s="17"/>
+      <c r="A168" s="16"/>
     </row>
     <row r="169" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A169" s="17"/>
+      <c r="A169" s="16"/>
     </row>
     <row r="170" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A170" s="17"/>
+      <c r="A170" s="16"/>
     </row>
     <row r="171" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A171" s="17"/>
+      <c r="A171" s="16"/>
     </row>
     <row r="172" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A172" s="17"/>
+      <c r="A172" s="16"/>
     </row>
     <row r="173" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A173" s="17"/>
+      <c r="A173" s="16"/>
     </row>
     <row r="174" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A174" s="17"/>
+      <c r="A174" s="16"/>
     </row>
     <row r="175" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A175" s="17"/>
+      <c r="A175" s="16"/>
     </row>
     <row r="176" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A176" s="17"/>
+      <c r="A176" s="16"/>
     </row>
     <row r="177" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A177" s="17"/>
+      <c r="A177" s="16"/>
     </row>
     <row r="178" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A178" s="17"/>
+      <c r="A178" s="16"/>
     </row>
     <row r="179" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A179" s="17"/>
+      <c r="A179" s="16"/>
     </row>
     <row r="180" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A180" s="17"/>
+      <c r="A180" s="16"/>
     </row>
     <row r="181" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A181" s="17"/>
+      <c r="A181" s="16"/>
     </row>
     <row r="182" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A182" s="17"/>
+      <c r="A182" s="16"/>
     </row>
     <row r="183" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A183" s="17"/>
+      <c r="A183" s="16"/>
     </row>
     <row r="184" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A184" s="17"/>
+      <c r="A184" s="16"/>
     </row>
     <row r="185" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A185" s="17"/>
+      <c r="A185" s="16"/>
     </row>
     <row r="186" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A186" s="17"/>
+      <c r="A186" s="16"/>
     </row>
     <row r="187" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A187" s="17"/>
+      <c r="A187" s="16"/>
     </row>
     <row r="188" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A188" s="17"/>
+      <c r="A188" s="16"/>
     </row>
     <row r="189" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A189" s="17"/>
+      <c r="A189" s="16"/>
     </row>
     <row r="190" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A190" s="17"/>
+      <c r="A190" s="16"/>
     </row>
     <row r="191" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A191" s="17"/>
+      <c r="A191" s="16"/>
     </row>
     <row r="192" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A192" s="17"/>
+      <c r="A192" s="16"/>
     </row>
     <row r="193" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A193" s="17"/>
+      <c r="A193" s="16"/>
     </row>
     <row r="194" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A194" s="17"/>
+      <c r="A194" s="16"/>
     </row>
     <row r="195" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A195" s="17"/>
+      <c r="A195" s="16"/>
     </row>
     <row r="196" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A196" s="17"/>
+      <c r="A196" s="16"/>
     </row>
     <row r="197" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A197" s="17"/>
+      <c r="A197" s="16"/>
     </row>
     <row r="198" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A198" s="17"/>
+      <c r="A198" s="16"/>
     </row>
     <row r="199" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A199" s="17"/>
+      <c r="A199" s="16"/>
     </row>
     <row r="200" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A200" s="17"/>
+      <c r="A200" s="16"/>
     </row>
     <row r="201" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A201" s="17"/>
+      <c r="A201" s="16"/>
     </row>
     <row r="202" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A202" s="17"/>
+      <c r="A202" s="16"/>
     </row>
     <row r="203" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A203" s="17"/>
+      <c r="A203" s="16"/>
     </row>
     <row r="204" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A204" s="17"/>
+      <c r="A204" s="16"/>
     </row>
     <row r="205" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A205" s="17"/>
+      <c r="A205" s="16"/>
     </row>
     <row r="206" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A206" s="17"/>
+      <c r="A206" s="16"/>
     </row>
     <row r="207" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A207" s="17"/>
+      <c r="A207" s="16"/>
     </row>
     <row r="208" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A208" s="17"/>
+      <c r="A208" s="16"/>
     </row>
     <row r="209" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A209" s="17"/>
+      <c r="A209" s="16"/>
     </row>
     <row r="210" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A210" s="17"/>
+      <c r="A210" s="16"/>
     </row>
     <row r="211" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A211" s="17"/>
+      <c r="A211" s="16"/>
     </row>
     <row r="212" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A212" s="17"/>
+      <c r="A212" s="16"/>
     </row>
     <row r="213" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A213" s="17"/>
+      <c r="A213" s="16"/>
     </row>
     <row r="214" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A214" s="17"/>
+      <c r="A214" s="16"/>
     </row>
     <row r="215" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A215" s="17"/>
+      <c r="A215" s="16"/>
     </row>
     <row r="216" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A216" s="17"/>
+      <c r="A216" s="16"/>
     </row>
     <row r="217" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A217" s="17"/>
+      <c r="A217" s="16"/>
     </row>
     <row r="218" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A218" s="17"/>
+      <c r="A218" s="16"/>
     </row>
     <row r="219" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A219" s="17"/>
+      <c r="A219" s="16"/>
     </row>
     <row r="220" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A220" s="17"/>
+      <c r="A220" s="16"/>
     </row>
     <row r="221" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A221" s="17"/>
+      <c r="A221" s="16"/>
     </row>
     <row r="222" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A222" s="17"/>
+      <c r="A222" s="16"/>
     </row>
     <row r="223" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A223" s="17"/>
+      <c r="A223" s="16"/>
     </row>
     <row r="224" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A224" s="17"/>
+      <c r="A224" s="16"/>
     </row>
     <row r="225" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A225" s="17"/>
+      <c r="A225" s="16"/>
     </row>
     <row r="226" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A226" s="17"/>
+      <c r="A226" s="16"/>
     </row>
     <row r="227" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A227" s="17"/>
+      <c r="A227" s="16"/>
     </row>
     <row r="228" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A228" s="17"/>
+      <c r="A228" s="16"/>
     </row>
     <row r="229" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A229" s="17"/>
+      <c r="A229" s="16"/>
     </row>
     <row r="230" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A230" s="17"/>
+      <c r="A230" s="16"/>
     </row>
     <row r="231" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A231" s="17"/>
+      <c r="A231" s="16"/>
     </row>
     <row r="232" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A232" s="17"/>
+      <c r="A232" s="16"/>
     </row>
     <row r="233" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A233" s="17"/>
+      <c r="A233" s="16"/>
     </row>
     <row r="234" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A234" s="17"/>
+      <c r="A234" s="16"/>
     </row>
     <row r="235" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A235" s="17"/>
+      <c r="A235" s="16"/>
     </row>
     <row r="236" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A236" s="17"/>
+      <c r="A236" s="16"/>
     </row>
     <row r="237" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A237" s="17"/>
+      <c r="A237" s="16"/>
     </row>
     <row r="238" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A238" s="17"/>
+      <c r="A238" s="16"/>
     </row>
     <row r="239" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A239" s="17"/>
+      <c r="A239" s="16"/>
     </row>
     <row r="240" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A240" s="17"/>
+      <c r="A240" s="16"/>
     </row>
     <row r="241" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A241" s="17"/>
+      <c r="A241" s="16"/>
     </row>
     <row r="242" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A242" s="17"/>
+      <c r="A242" s="16"/>
     </row>
     <row r="243" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A243" s="17"/>
+      <c r="A243" s="16"/>
     </row>
     <row r="244" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A244" s="17"/>
+      <c r="A244" s="16"/>
     </row>
     <row r="245" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A245" s="17"/>
+      <c r="A245" s="16"/>
     </row>
     <row r="246" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A246" s="17"/>
+      <c r="A246" s="16"/>
     </row>
     <row r="247" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A247" s="17"/>
+      <c r="A247" s="16"/>
     </row>
     <row r="248" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A248" s="17"/>
+      <c r="A248" s="16"/>
     </row>
     <row r="249" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A249" s="17"/>
+      <c r="A249" s="16"/>
     </row>
     <row r="250" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A250" s="17"/>
+      <c r="A250" s="16"/>
     </row>
     <row r="251" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A251" s="17"/>
+      <c r="A251" s="16"/>
     </row>
     <row r="252" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A252" s="17"/>
+      <c r="A252" s="16"/>
     </row>
     <row r="253" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A253" s="17"/>
+      <c r="A253" s="16"/>
     </row>
     <row r="254" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A254" s="17"/>
+      <c r="A254" s="16"/>
     </row>
     <row r="255" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A255" s="17"/>
+      <c r="A255" s="16"/>
     </row>
     <row r="256" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A256" s="17"/>
+      <c r="A256" s="16"/>
     </row>
     <row r="257" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A257" s="17"/>
+      <c r="A257" s="16"/>
     </row>
     <row r="258" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A258" s="17"/>
+      <c r="A258" s="16"/>
     </row>
     <row r="259" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A259" s="17"/>
+      <c r="A259" s="16"/>
     </row>
     <row r="260" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A260" s="17"/>
+      <c r="A260" s="16"/>
     </row>
     <row r="261" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A261" s="17"/>
+      <c r="A261" s="16"/>
     </row>
     <row r="262" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A262" s="17"/>
+      <c r="A262" s="16"/>
     </row>
     <row r="263" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A263" s="17"/>
+      <c r="A263" s="16"/>
     </row>
     <row r="264" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A264" s="17"/>
+      <c r="A264" s="16"/>
     </row>
     <row r="265" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A265" s="17"/>
+      <c r="A265" s="16"/>
     </row>
     <row r="266" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A266" s="17"/>
+      <c r="A266" s="16"/>
     </row>
     <row r="267" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A267" s="17"/>
+      <c r="A267" s="16"/>
     </row>
     <row r="268" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A268" s="17"/>
+      <c r="A268" s="16"/>
     </row>
     <row r="269" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A269" s="17"/>
+      <c r="A269" s="16"/>
     </row>
     <row r="270" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A270" s="17"/>
+      <c r="A270" s="16"/>
     </row>
     <row r="271" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A271" s="17"/>
+      <c r="A271" s="16"/>
     </row>
     <row r="272" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A272" s="17"/>
+      <c r="A272" s="16"/>
     </row>
     <row r="273" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A273" s="17"/>
+      <c r="A273" s="16"/>
     </row>
     <row r="274" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A274" s="17"/>
+      <c r="A274" s="16"/>
     </row>
     <row r="275" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A275" s="17"/>
+      <c r="A275" s="16"/>
     </row>
     <row r="276" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A276" s="17"/>
+      <c r="A276" s="16"/>
     </row>
     <row r="277" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A277" s="17"/>
+      <c r="A277" s="16"/>
     </row>
     <row r="278" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A278" s="17"/>
+      <c r="A278" s="16"/>
     </row>
     <row r="279" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A279" s="17"/>
+      <c r="A279" s="16"/>
     </row>
     <row r="280" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A280" s="17"/>
+      <c r="A280" s="16"/>
     </row>
     <row r="281" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A281" s="17"/>
+      <c r="A281" s="16"/>
     </row>
     <row r="282" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A282" s="17"/>
+      <c r="A282" s="16"/>
     </row>
     <row r="283" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A283" s="17"/>
+      <c r="A283" s="16"/>
     </row>
     <row r="284" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A284" s="17"/>
+      <c r="A284" s="16"/>
     </row>
     <row r="285" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A285" s="17"/>
+      <c r="A285" s="16"/>
     </row>
     <row r="286" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A286" s="17"/>
+      <c r="A286" s="16"/>
     </row>
     <row r="287" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A287" s="17"/>
+      <c r="A287" s="16"/>
     </row>
     <row r="288" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A288" s="17"/>
+      <c r="A288" s="16"/>
     </row>
     <row r="289" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A289" s="17"/>
+      <c r="A289" s="16"/>
     </row>
     <row r="290" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A290" s="17"/>
+      <c r="A290" s="16"/>
     </row>
     <row r="291" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A291" s="17"/>
+      <c r="A291" s="16"/>
     </row>
     <row r="292" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A292" s="17"/>
+      <c r="A292" s="16"/>
     </row>
     <row r="293" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A293" s="17"/>
+      <c r="A293" s="16"/>
     </row>
     <row r="294" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A294" s="17"/>
+      <c r="A294" s="16"/>
     </row>
     <row r="295" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A295" s="17"/>
+      <c r="A295" s="16"/>
     </row>
     <row r="296" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A296" s="17"/>
+      <c r="A296" s="16"/>
     </row>
     <row r="297" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A297" s="17"/>
+      <c r="A297" s="16"/>
     </row>
     <row r="298" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A298" s="17"/>
+      <c r="A298" s="16"/>
     </row>
     <row r="299" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A299" s="17"/>
+      <c r="A299" s="16"/>
     </row>
     <row r="300" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A300" s="17"/>
+      <c r="A300" s="16"/>
     </row>
     <row r="301" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A301" s="17"/>
+      <c r="A301" s="16"/>
     </row>
     <row r="302" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A302" s="17"/>
+      <c r="A302" s="16"/>
     </row>
     <row r="303" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A303" s="17"/>
+      <c r="A303" s="16"/>
     </row>
     <row r="304" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A304" s="17"/>
+      <c r="A304" s="16"/>
     </row>
     <row r="305" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A305" s="17"/>
+      <c r="A305" s="16"/>
     </row>
     <row r="306" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A306" s="17"/>
+      <c r="A306" s="16"/>
     </row>
     <row r="307" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A307" s="17"/>
+      <c r="A307" s="16"/>
     </row>
     <row r="308" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A308" s="17"/>
+      <c r="A308" s="16"/>
     </row>
     <row r="309" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A309" s="17"/>
+      <c r="A309" s="16"/>
     </row>
     <row r="310" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A310" s="17"/>
+      <c r="A310" s="16"/>
     </row>
     <row r="311" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A311" s="17"/>
+      <c r="A311" s="16"/>
     </row>
     <row r="312" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A312" s="17"/>
+      <c r="A312" s="16"/>
     </row>
     <row r="313" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A313" s="17"/>
+      <c r="A313" s="16"/>
     </row>
     <row r="314" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A314" s="17"/>
+      <c r="A314" s="16"/>
     </row>
     <row r="315" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A315" s="17"/>
+      <c r="A315" s="16"/>
     </row>
     <row r="316" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A316" s="17"/>
+      <c r="A316" s="16"/>
     </row>
     <row r="317" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A317" s="17"/>
+      <c r="A317" s="16"/>
     </row>
     <row r="318" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A318" s="17"/>
+      <c r="A318" s="16"/>
     </row>
     <row r="319" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A319" s="17"/>
+      <c r="A319" s="16"/>
     </row>
     <row r="320" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A320" s="17"/>
+      <c r="A320" s="16"/>
     </row>
     <row r="321" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A321" s="17"/>
+      <c r="A321" s="16"/>
     </row>
     <row r="322" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A322" s="17"/>
+      <c r="A322" s="16"/>
     </row>
     <row r="323" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A323" s="17"/>
+      <c r="A323" s="16"/>
     </row>
     <row r="324" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A324" s="17"/>
+      <c r="A324" s="16"/>
     </row>
     <row r="325" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A325" s="17"/>
+      <c r="A325" s="16"/>
     </row>
     <row r="326" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A326" s="17"/>
+      <c r="A326" s="16"/>
     </row>
     <row r="327" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A327" s="17"/>
+      <c r="A327" s="16"/>
     </row>
     <row r="328" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A328" s="17"/>
+      <c r="A328" s="16"/>
     </row>
     <row r="329" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A329" s="17"/>
+      <c r="A329" s="16"/>
     </row>
     <row r="330" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A330" s="17"/>
+      <c r="A330" s="16"/>
     </row>
     <row r="331" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A331" s="17"/>
+      <c r="A331" s="16"/>
     </row>
     <row r="332" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A332" s="17"/>
+      <c r="A332" s="16"/>
     </row>
     <row r="333" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A333" s="17"/>
+      <c r="A333" s="16"/>
     </row>
     <row r="334" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A334" s="17"/>
+      <c r="A334" s="16"/>
     </row>
     <row r="335" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A335" s="17"/>
+      <c r="A335" s="16"/>
     </row>
     <row r="336" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A336" s="17"/>
+      <c r="A336" s="16"/>
     </row>
     <row r="337" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A337" s="17"/>
+      <c r="A337" s="16"/>
     </row>
     <row r="338" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A338" s="17"/>
+      <c r="A338" s="16"/>
     </row>
     <row r="339" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A339" s="17"/>
+      <c r="A339" s="16"/>
     </row>
     <row r="340" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A340" s="17"/>
+      <c r="A340" s="16"/>
     </row>
     <row r="341" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A341" s="17"/>
+      <c r="A341" s="16"/>
     </row>
     <row r="342" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A342" s="17"/>
+      <c r="A342" s="16"/>
     </row>
     <row r="343" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A343" s="17"/>
+      <c r="A343" s="16"/>
     </row>
     <row r="344" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A344" s="17"/>
+      <c r="A344" s="16"/>
     </row>
     <row r="345" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A345" s="17"/>
+      <c r="A345" s="16"/>
     </row>
     <row r="346" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A346" s="17"/>
+      <c r="A346" s="16"/>
     </row>
     <row r="347" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A347" s="17"/>
+      <c r="A347" s="16"/>
     </row>
     <row r="348" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A348" s="17"/>
+      <c r="A348" s="16"/>
     </row>
     <row r="349" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A349" s="17"/>
+      <c r="A349" s="16"/>
     </row>
     <row r="350" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A350" s="17"/>
+      <c r="A350" s="16"/>
     </row>
     <row r="351" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A351" s="17"/>
+      <c r="A351" s="16"/>
     </row>
     <row r="352" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A352" s="17"/>
+      <c r="A352" s="16"/>
     </row>
     <row r="353" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A353" s="17"/>
+      <c r="A353" s="16"/>
     </row>
     <row r="354" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A354" s="17"/>
+      <c r="A354" s="16"/>
     </row>
     <row r="355" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A355" s="17"/>
+      <c r="A355" s="16"/>
     </row>
     <row r="356" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A356" s="17"/>
+      <c r="A356" s="16"/>
     </row>
     <row r="357" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A357" s="17"/>
+      <c r="A357" s="16"/>
     </row>
     <row r="358" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A358" s="17"/>
+      <c r="A358" s="16"/>
     </row>
     <row r="359" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A359" s="17"/>
+      <c r="A359" s="16"/>
     </row>
     <row r="360" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A360" s="17"/>
+      <c r="A360" s="16"/>
     </row>
     <row r="361" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A361" s="17"/>
+      <c r="A361" s="16"/>
     </row>
     <row r="362" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A362" s="17"/>
+      <c r="A362" s="16"/>
     </row>
     <row r="363" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A363" s="17"/>
+      <c r="A363" s="16"/>
     </row>
     <row r="364" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A364" s="17"/>
+      <c r="A364" s="16"/>
     </row>
     <row r="365" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A365" s="17"/>
+      <c r="A365" s="16"/>
     </row>
     <row r="366" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A366" s="17"/>
+      <c r="A366" s="16"/>
     </row>
     <row r="367" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A367" s="17"/>
+      <c r="A367" s="16"/>
     </row>
     <row r="368" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A368" s="17"/>
+      <c r="A368" s="16"/>
     </row>
     <row r="369" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A369" s="17"/>
+      <c r="A369" s="16"/>
     </row>
     <row r="370" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A370" s="17"/>
+      <c r="A370" s="16"/>
     </row>
     <row r="371" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A371" s="17"/>
+      <c r="A371" s="16"/>
     </row>
     <row r="372" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A372" s="17"/>
+      <c r="A372" s="16"/>
     </row>
     <row r="373" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A373" s="17"/>
+      <c r="A373" s="16"/>
     </row>
     <row r="374" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A374" s="17"/>
+      <c r="A374" s="16"/>
     </row>
     <row r="375" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A375" s="17"/>
+      <c r="A375" s="16"/>
     </row>
     <row r="376" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A376" s="17"/>
+      <c r="A376" s="16"/>
     </row>
     <row r="377" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A377" s="17"/>
+      <c r="A377" s="16"/>
     </row>
     <row r="378" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A378" s="17"/>
+      <c r="A378" s="16"/>
     </row>
     <row r="379" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A379" s="17"/>
+      <c r="A379" s="16"/>
     </row>
     <row r="380" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A380" s="17"/>
+      <c r="A380" s="16"/>
     </row>
     <row r="381" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A381" s="17"/>
+      <c r="A381" s="16"/>
     </row>
     <row r="382" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A382" s="17"/>
+      <c r="A382" s="16"/>
     </row>
     <row r="383" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A383" s="17"/>
+      <c r="A383" s="16"/>
     </row>
     <row r="384" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A384" s="17"/>
+      <c r="A384" s="16"/>
     </row>
     <row r="385" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A385" s="17"/>
+      <c r="A385" s="16"/>
     </row>
     <row r="386" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A386" s="17"/>
+      <c r="A386" s="16"/>
     </row>
     <row r="387" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A387" s="17"/>
+      <c r="A387" s="16"/>
     </row>
     <row r="388" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A388" s="17"/>
+      <c r="A388" s="16"/>
     </row>
     <row r="389" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A389" s="17"/>
+      <c r="A389" s="16"/>
     </row>
     <row r="390" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A390" s="17"/>
+      <c r="A390" s="16"/>
     </row>
     <row r="391" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A391" s="17"/>
+      <c r="A391" s="16"/>
     </row>
     <row r="392" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A392" s="17"/>
+      <c r="A392" s="16"/>
     </row>
     <row r="393" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A393" s="17"/>
+      <c r="A393" s="16"/>
     </row>
     <row r="394" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A394" s="17"/>
+      <c r="A394" s="16"/>
     </row>
     <row r="395" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A395" s="17"/>
+      <c r="A395" s="16"/>
     </row>
     <row r="396" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A396" s="17"/>
+      <c r="A396" s="16"/>
     </row>
     <row r="397" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A397" s="17"/>
+      <c r="A397" s="16"/>
     </row>
     <row r="398" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A398" s="17"/>
+      <c r="A398" s="16"/>
     </row>
     <row r="399" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A399" s="17"/>
+      <c r="A399" s="16"/>
     </row>
     <row r="400" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A400" s="17"/>
+      <c r="A400" s="16"/>
     </row>
     <row r="401" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A401" s="17"/>
+      <c r="A401" s="16"/>
     </row>
     <row r="402" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A402" s="17"/>
+      <c r="A402" s="16"/>
     </row>
     <row r="403" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A403" s="17"/>
+      <c r="A403" s="16"/>
     </row>
     <row r="404" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A404" s="17"/>
+      <c r="A404" s="16"/>
     </row>
     <row r="405" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A405" s="17"/>
+      <c r="A405" s="16"/>
     </row>
     <row r="406" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A406" s="17"/>
+      <c r="A406" s="16"/>
     </row>
     <row r="407" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A407" s="17"/>
+      <c r="A407" s="16"/>
     </row>
     <row r="408" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A408" s="17"/>
+      <c r="A408" s="16"/>
     </row>
     <row r="409" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A409" s="17"/>
+      <c r="A409" s="16"/>
     </row>
     <row r="410" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A410" s="17"/>
+      <c r="A410" s="16"/>
     </row>
     <row r="411" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A411" s="17"/>
+      <c r="A411" s="16"/>
     </row>
     <row r="412" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A412" s="17"/>
+      <c r="A412" s="16"/>
     </row>
     <row r="413" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A413" s="17"/>
+      <c r="A413" s="16"/>
     </row>
     <row r="414" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A414" s="17"/>
+      <c r="A414" s="16"/>
     </row>
     <row r="415" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A415" s="17"/>
+      <c r="A415" s="16"/>
     </row>
     <row r="416" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A416" s="17"/>
+      <c r="A416" s="16"/>
     </row>
     <row r="417" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A417" s="17"/>
+      <c r="A417" s="16"/>
     </row>
     <row r="418" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A418" s="17"/>
+      <c r="A418" s="16"/>
     </row>
     <row r="419" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A419" s="17"/>
+      <c r="A419" s="16"/>
     </row>
     <row r="420" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A420" s="17"/>
+      <c r="A420" s="16"/>
     </row>
     <row r="421" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A421" s="17"/>
+      <c r="A421" s="16"/>
     </row>
     <row r="422" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A422" s="17"/>
+      <c r="A422" s="16"/>
     </row>
     <row r="423" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A423" s="17"/>
+      <c r="A423" s="16"/>
     </row>
     <row r="424" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A424" s="17"/>
+      <c r="A424" s="16"/>
     </row>
     <row r="425" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A425" s="17"/>
+      <c r="A425" s="16"/>
     </row>
     <row r="426" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A426" s="17"/>
+      <c r="A426" s="16"/>
     </row>
     <row r="427" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A427" s="17"/>
+      <c r="A427" s="16"/>
     </row>
     <row r="428" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A428" s="17"/>
+      <c r="A428" s="16"/>
     </row>
     <row r="429" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A429" s="17"/>
+      <c r="A429" s="16"/>
     </row>
     <row r="430" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A430" s="17"/>
+      <c r="A430" s="16"/>
     </row>
     <row r="431" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A431" s="17"/>
+      <c r="A431" s="16"/>
     </row>
     <row r="432" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A432" s="17"/>
+      <c r="A432" s="16"/>
     </row>
     <row r="433" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A433" s="17"/>
+      <c r="A433" s="16"/>
     </row>
     <row r="434" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A434" s="17"/>
+      <c r="A434" s="16"/>
     </row>
     <row r="435" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A435" s="17"/>
+      <c r="A435" s="16"/>
     </row>
     <row r="436" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A436" s="17"/>
+      <c r="A436" s="16"/>
     </row>
     <row r="437" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A437" s="17"/>
+      <c r="A437" s="16"/>
     </row>
     <row r="438" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A438" s="17"/>
+      <c r="A438" s="16"/>
     </row>
     <row r="439" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A439" s="17"/>
+      <c r="A439" s="16"/>
     </row>
     <row r="440" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A440" s="17"/>
+      <c r="A440" s="16"/>
     </row>
     <row r="441" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A441" s="17"/>
+      <c r="A441" s="16"/>
     </row>
     <row r="442" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A442" s="17"/>
+      <c r="A442" s="16"/>
     </row>
     <row r="443" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A443" s="17"/>
+      <c r="A443" s="16"/>
     </row>
     <row r="444" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A444" s="17"/>
+      <c r="A444" s="16"/>
     </row>
     <row r="445" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A445" s="17"/>
+      <c r="A445" s="16"/>
     </row>
     <row r="446" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A446" s="17"/>
+      <c r="A446" s="16"/>
     </row>
     <row r="447" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A447" s="17"/>
+      <c r="A447" s="16"/>
     </row>
     <row r="448" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A448" s="17"/>
+      <c r="A448" s="16"/>
     </row>
     <row r="449" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A449" s="17"/>
+      <c r="A449" s="16"/>
     </row>
     <row r="450" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A450" s="17"/>
+      <c r="A450" s="16"/>
     </row>
     <row r="451" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A451" s="17"/>
+      <c r="A451" s="16"/>
     </row>
     <row r="452" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A452" s="17"/>
+      <c r="A452" s="16"/>
     </row>
     <row r="453" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A453" s="17"/>
+      <c r="A453" s="16"/>
     </row>
     <row r="454" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A454" s="17"/>
+      <c r="A454" s="16"/>
     </row>
     <row r="455" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A455" s="17"/>
+      <c r="A455" s="16"/>
     </row>
     <row r="456" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A456" s="17"/>
+      <c r="A456" s="16"/>
     </row>
     <row r="457" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A457" s="17"/>
+      <c r="A457" s="16"/>
     </row>
     <row r="458" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A458" s="17"/>
+      <c r="A458" s="16"/>
     </row>
     <row r="459" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A459" s="17"/>
+      <c r="A459" s="16"/>
     </row>
     <row r="460" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A460" s="17"/>
+      <c r="A460" s="16"/>
     </row>
     <row r="461" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A461" s="17"/>
+      <c r="A461" s="16"/>
     </row>
     <row r="462" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A462" s="17"/>
+      <c r="A462" s="16"/>
     </row>
     <row r="463" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A463" s="17"/>
+      <c r="A463" s="16"/>
     </row>
     <row r="464" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A464" s="17"/>
+      <c r="A464" s="16"/>
     </row>
     <row r="465" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A465" s="17"/>
+      <c r="A465" s="16"/>
     </row>
     <row r="466" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A466" s="17"/>
+      <c r="A466" s="16"/>
     </row>
     <row r="467" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A467" s="17"/>
+      <c r="A467" s="16"/>
     </row>
     <row r="468" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A468" s="17"/>
+      <c r="A468" s="16"/>
     </row>
     <row r="469" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A469" s="17"/>
+      <c r="A469" s="16"/>
     </row>
     <row r="470" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A470" s="17"/>
+      <c r="A470" s="16"/>
     </row>
     <row r="471" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A471" s="17"/>
+      <c r="A471" s="16"/>
     </row>
     <row r="472" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A472" s="17"/>
+      <c r="A472" s="16"/>
     </row>
     <row r="473" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A473" s="17"/>
+      <c r="A473" s="16"/>
     </row>
     <row r="474" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A474" s="17"/>
+      <c r="A474" s="16"/>
     </row>
     <row r="475" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A475" s="17"/>
+      <c r="A475" s="16"/>
     </row>
     <row r="476" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A476" s="17"/>
+      <c r="A476" s="16"/>
     </row>
     <row r="477" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A477" s="17"/>
+      <c r="A477" s="16"/>
     </row>
     <row r="478" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A478" s="17"/>
+      <c r="A478" s="16"/>
     </row>
     <row r="479" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A479" s="17"/>
+      <c r="A479" s="16"/>
     </row>
     <row r="480" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A480" s="17"/>
+      <c r="A480" s="16"/>
     </row>
     <row r="481" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A481" s="17"/>
+      <c r="A481" s="16"/>
     </row>
     <row r="482" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A482" s="17"/>
+      <c r="A482" s="16"/>
     </row>
     <row r="483" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A483" s="17"/>
+      <c r="A483" s="16"/>
     </row>
     <row r="484" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A484" s="17"/>
+      <c r="A484" s="16"/>
     </row>
     <row r="485" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A485" s="17"/>
+      <c r="A485" s="16"/>
     </row>
     <row r="486" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A486" s="17"/>
+      <c r="A486" s="16"/>
     </row>
     <row r="487" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A487" s="17"/>
+      <c r="A487" s="16"/>
     </row>
     <row r="488" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A488" s="17"/>
+      <c r="A488" s="16"/>
     </row>
     <row r="489" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A489" s="17"/>
+      <c r="A489" s="16"/>
     </row>
     <row r="490" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A490" s="17"/>
+      <c r="A490" s="16"/>
     </row>
     <row r="491" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A491" s="17"/>
+      <c r="A491" s="16"/>
     </row>
     <row r="492" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A492" s="17"/>
+      <c r="A492" s="16"/>
     </row>
     <row r="493" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A493" s="17"/>
+      <c r="A493" s="16"/>
     </row>
     <row r="494" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A494" s="17"/>
+      <c r="A494" s="16"/>
     </row>
     <row r="495" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A495" s="17"/>
+      <c r="A495" s="16"/>
     </row>
     <row r="496" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A496" s="17"/>
+      <c r="A496" s="16"/>
     </row>
     <row r="497" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A497" s="17"/>
+      <c r="A497" s="16"/>
     </row>
     <row r="498" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A498" s="17"/>
+      <c r="A498" s="16"/>
     </row>
     <row r="499" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A499" s="17"/>
+      <c r="A499" s="16"/>
     </row>
     <row r="500" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A500" s="17"/>
+      <c r="A500" s="16"/>
     </row>
     <row r="501" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A501" s="17"/>
+      <c r="A501" s="16"/>
     </row>
     <row r="502" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A502" s="17"/>
+      <c r="A502" s="16"/>
     </row>
     <row r="503" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A503" s="17"/>
+      <c r="A503" s="16"/>
     </row>
     <row r="504" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A504" s="17"/>
+      <c r="A504" s="16"/>
     </row>
     <row r="505" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A505" s="17"/>
+      <c r="A505" s="16"/>
     </row>
     <row r="506" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A506" s="17"/>
+      <c r="A506" s="16"/>
     </row>
     <row r="507" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A507" s="17"/>
+      <c r="A507" s="16"/>
     </row>
     <row r="508" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A508" s="17"/>
+      <c r="A508" s="16"/>
     </row>
     <row r="509" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A509" s="17"/>
+      <c r="A509" s="16"/>
     </row>
     <row r="510" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A510" s="17"/>
+      <c r="A510" s="16"/>
     </row>
     <row r="511" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A511" s="17"/>
+      <c r="A511" s="16"/>
     </row>
     <row r="512" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A512" s="17"/>
+      <c r="A512" s="16"/>
     </row>
     <row r="513" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A513" s="17"/>
+      <c r="A513" s="16"/>
     </row>
     <row r="514" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A514" s="17"/>
+      <c r="A514" s="16"/>
     </row>
     <row r="515" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A515" s="17"/>
+      <c r="A515" s="16"/>
     </row>
     <row r="516" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A516" s="17"/>
+      <c r="A516" s="16"/>
     </row>
     <row r="517" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A517" s="17"/>
+      <c r="A517" s="16"/>
     </row>
     <row r="518" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A518" s="17"/>
+      <c r="A518" s="16"/>
     </row>
     <row r="519" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A519" s="17"/>
+      <c r="A519" s="16"/>
     </row>
     <row r="520" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A520" s="17"/>
+      <c r="A520" s="16"/>
     </row>
     <row r="521" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A521" s="17"/>
+      <c r="A521" s="16"/>
     </row>
     <row r="522" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A522" s="17"/>
+      <c r="A522" s="16"/>
     </row>
     <row r="523" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A523" s="17"/>
+      <c r="A523" s="16"/>
     </row>
     <row r="524" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A524" s="17"/>
+      <c r="A524" s="16"/>
     </row>
     <row r="525" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A525" s="17"/>
+      <c r="A525" s="16"/>
     </row>
     <row r="526" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A526" s="17"/>
+      <c r="A526" s="16"/>
     </row>
     <row r="527" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A527" s="17"/>
+      <c r="A527" s="16"/>
     </row>
     <row r="528" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A528" s="17"/>
+      <c r="A528" s="16"/>
     </row>
     <row r="529" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A529" s="17"/>
+      <c r="A529" s="16"/>
     </row>
     <row r="530" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A530" s="17"/>
+      <c r="A530" s="16"/>
     </row>
     <row r="531" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A531" s="17"/>
+      <c r="A531" s="16"/>
     </row>
     <row r="532" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A532" s="17"/>
+      <c r="A532" s="16"/>
     </row>
     <row r="533" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A533" s="17"/>
+      <c r="A533" s="16"/>
     </row>
     <row r="534" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A534" s="17"/>
+      <c r="A534" s="16"/>
     </row>
     <row r="535" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A535" s="17"/>
+      <c r="A535" s="16"/>
     </row>
     <row r="536" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A536" s="17"/>
+      <c r="A536" s="16"/>
     </row>
     <row r="537" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A537" s="17"/>
+      <c r="A537" s="16"/>
     </row>
     <row r="538" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A538" s="17"/>
+      <c r="A538" s="16"/>
     </row>
     <row r="539" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A539" s="17"/>
+      <c r="A539" s="16"/>
     </row>
     <row r="540" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A540" s="17"/>
+      <c r="A540" s="16"/>
     </row>
     <row r="541" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A541" s="17"/>
+      <c r="A541" s="16"/>
     </row>
     <row r="542" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A542" s="17"/>
+      <c r="A542" s="16"/>
     </row>
     <row r="543" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A543" s="17"/>
+      <c r="A543" s="16"/>
     </row>
     <row r="544" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A544" s="17"/>
+      <c r="A544" s="16"/>
     </row>
     <row r="545" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A545" s="17"/>
+      <c r="A545" s="16"/>
     </row>
     <row r="546" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A546" s="17"/>
+      <c r="A546" s="16"/>
     </row>
     <row r="547" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A547" s="17"/>
+      <c r="A547" s="16"/>
     </row>
     <row r="548" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A548" s="17"/>
+      <c r="A548" s="16"/>
     </row>
     <row r="549" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A549" s="17"/>
+      <c r="A549" s="16"/>
     </row>
     <row r="550" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A550" s="17"/>
+      <c r="A550" s="16"/>
     </row>
     <row r="551" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A551" s="17"/>
+      <c r="A551" s="16"/>
     </row>
     <row r="552" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A552" s="17"/>
+      <c r="A552" s="16"/>
     </row>
     <row r="553" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A553" s="17"/>
+      <c r="A553" s="16"/>
     </row>
     <row r="554" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A554" s="17"/>
+      <c r="A554" s="16"/>
     </row>
     <row r="555" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A555" s="17"/>
+      <c r="A555" s="16"/>
     </row>
     <row r="556" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A556" s="17"/>
+      <c r="A556" s="16"/>
     </row>
     <row r="557" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A557" s="17"/>
+      <c r="A557" s="16"/>
     </row>
     <row r="558" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A558" s="17"/>
+      <c r="A558" s="16"/>
     </row>
     <row r="559" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A559" s="17"/>
+      <c r="A559" s="16"/>
     </row>
     <row r="560" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A560" s="17"/>
+      <c r="A560" s="16"/>
     </row>
     <row r="561" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A561" s="17"/>
+      <c r="A561" s="16"/>
     </row>
     <row r="562" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A562" s="17"/>
+      <c r="A562" s="16"/>
     </row>
     <row r="563" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A563" s="17"/>
+      <c r="A563" s="16"/>
     </row>
     <row r="564" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A564" s="17"/>
+      <c r="A564" s="16"/>
     </row>
     <row r="565" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A565" s="17"/>
+      <c r="A565" s="16"/>
     </row>
     <row r="566" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A566" s="17"/>
+      <c r="A566" s="16"/>
     </row>
     <row r="567" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A567" s="17"/>
+      <c r="A567" s="16"/>
     </row>
     <row r="568" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A568" s="17"/>
+      <c r="A568" s="16"/>
     </row>
     <row r="569" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A569" s="17"/>
+      <c r="A569" s="16"/>
     </row>
     <row r="570" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A570" s="17"/>
+      <c r="A570" s="16"/>
     </row>
     <row r="571" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A571" s="17"/>
+      <c r="A571" s="16"/>
     </row>
     <row r="572" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A572" s="17"/>
+      <c r="A572" s="16"/>
     </row>
     <row r="573" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A573" s="17"/>
+      <c r="A573" s="16"/>
     </row>
     <row r="574" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A574" s="17"/>
+      <c r="A574" s="16"/>
     </row>
     <row r="575" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A575" s="17"/>
+      <c r="A575" s="16"/>
     </row>
     <row r="576" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A576" s="17"/>
+      <c r="A576" s="16"/>
     </row>
     <row r="577" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A577" s="17"/>
+      <c r="A577" s="16"/>
     </row>
     <row r="578" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A578" s="17"/>
+      <c r="A578" s="16"/>
     </row>
     <row r="579" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A579" s="17"/>
+      <c r="A579" s="16"/>
     </row>
     <row r="580" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A580" s="17"/>
+      <c r="A580" s="16"/>
     </row>
     <row r="581" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A581" s="17"/>
+      <c r="A581" s="16"/>
     </row>
     <row r="582" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A582" s="17"/>
+      <c r="A582" s="16"/>
     </row>
     <row r="583" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A583" s="17"/>
+      <c r="A583" s="16"/>
     </row>
     <row r="584" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A584" s="17"/>
+      <c r="A584" s="16"/>
     </row>
     <row r="585" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A585" s="17"/>
+      <c r="A585" s="16"/>
     </row>
     <row r="586" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A586" s="17"/>
+      <c r="A586" s="16"/>
     </row>
     <row r="587" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A587" s="17"/>
+      <c r="A587" s="16"/>
     </row>
     <row r="588" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A588" s="17"/>
+      <c r="A588" s="16"/>
     </row>
     <row r="589" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A589" s="17"/>
+      <c r="A589" s="16"/>
     </row>
     <row r="590" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A590" s="17"/>
+      <c r="A590" s="16"/>
     </row>
     <row r="591" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A591" s="17"/>
+      <c r="A591" s="16"/>
     </row>
     <row r="592" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A592" s="17"/>
+      <c r="A592" s="16"/>
     </row>
     <row r="593" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A593" s="17"/>
+      <c r="A593" s="16"/>
     </row>
     <row r="594" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A594" s="17"/>
+      <c r="A594" s="16"/>
     </row>
     <row r="595" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A595" s="17"/>
+      <c r="A595" s="16"/>
     </row>
     <row r="596" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A596" s="17"/>
+      <c r="A596" s="16"/>
     </row>
     <row r="597" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A597" s="17"/>
+      <c r="A597" s="16"/>
     </row>
     <row r="598" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A598" s="17"/>
+      <c r="A598" s="16"/>
     </row>
     <row r="599" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A599" s="17"/>
+      <c r="A599" s="16"/>
     </row>
     <row r="600" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A600" s="17"/>
+      <c r="A600" s="16"/>
     </row>
     <row r="601" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A601" s="17"/>
+      <c r="A601" s="16"/>
     </row>
     <row r="602" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A602" s="17"/>
+      <c r="A602" s="16"/>
     </row>
     <row r="603" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A603" s="17"/>
+      <c r="A603" s="16"/>
     </row>
     <row r="604" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A604" s="17"/>
+      <c r="A604" s="16"/>
     </row>
     <row r="605" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A605" s="17"/>
+      <c r="A605" s="16"/>
     </row>
     <row r="606" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A606" s="17"/>
+      <c r="A606" s="16"/>
     </row>
     <row r="607" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A607" s="17"/>
+      <c r="A607" s="16"/>
     </row>
     <row r="608" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A608" s="17"/>
+      <c r="A608" s="16"/>
     </row>
     <row r="609" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A609" s="17"/>
+      <c r="A609" s="16"/>
     </row>
     <row r="610" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A610" s="17"/>
+      <c r="A610" s="16"/>
     </row>
     <row r="611" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A611" s="17"/>
+      <c r="A611" s="16"/>
     </row>
     <row r="612" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A612" s="17"/>
+      <c r="A612" s="16"/>
     </row>
     <row r="613" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A613" s="17"/>
+      <c r="A613" s="16"/>
     </row>
     <row r="614" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A614" s="17"/>
+      <c r="A614" s="16"/>
     </row>
     <row r="615" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A615" s="17"/>
+      <c r="A615" s="16"/>
     </row>
     <row r="616" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A616" s="17"/>
+      <c r="A616" s="16"/>
     </row>
     <row r="617" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A617" s="17"/>
+      <c r="A617" s="16"/>
     </row>
     <row r="618" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A618" s="17"/>
+      <c r="A618" s="16"/>
     </row>
     <row r="619" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A619" s="17"/>
+      <c r="A619" s="16"/>
     </row>
     <row r="620" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A620" s="17"/>
+      <c r="A620" s="16"/>
     </row>
     <row r="621" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A621" s="17"/>
+      <c r="A621" s="16"/>
     </row>
     <row r="622" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A622" s="17"/>
+      <c r="A622" s="16"/>
     </row>
     <row r="623" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A623" s="17"/>
+      <c r="A623" s="16"/>
     </row>
     <row r="624" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A624" s="17"/>
+      <c r="A624" s="16"/>
     </row>
     <row r="625" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A625" s="17"/>
+      <c r="A625" s="16"/>
     </row>
     <row r="626" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A626" s="17"/>
+      <c r="A626" s="16"/>
     </row>
     <row r="627" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A627" s="17"/>
+      <c r="A627" s="16"/>
     </row>
     <row r="628" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A628" s="17"/>
+      <c r="A628" s="16"/>
     </row>
     <row r="629" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A629" s="17"/>
+      <c r="A629" s="16"/>
     </row>
     <row r="630" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A630" s="17"/>
+      <c r="A630" s="16"/>
     </row>
     <row r="631" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A631" s="17"/>
+      <c r="A631" s="16"/>
     </row>
     <row r="632" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A632" s="17"/>
+      <c r="A632" s="16"/>
     </row>
     <row r="633" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A633" s="17"/>
+      <c r="A633" s="16"/>
     </row>
     <row r="634" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A634" s="17"/>
+      <c r="A634" s="16"/>
     </row>
     <row r="635" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A635" s="17"/>
+      <c r="A635" s="16"/>
     </row>
     <row r="636" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A636" s="17"/>
+      <c r="A636" s="16"/>
     </row>
     <row r="637" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A637" s="17"/>
+      <c r="A637" s="16"/>
     </row>
     <row r="638" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A638" s="17"/>
+      <c r="A638" s="16"/>
     </row>
     <row r="639" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A639" s="17"/>
+      <c r="A639" s="16"/>
     </row>
     <row r="640" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A640" s="17"/>
+      <c r="A640" s="16"/>
     </row>
     <row r="641" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A641" s="17"/>
+      <c r="A641" s="16"/>
     </row>
     <row r="642" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A642" s="17"/>
+      <c r="A642" s="16"/>
     </row>
     <row r="643" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A643" s="17"/>
+      <c r="A643" s="16"/>
     </row>
     <row r="644" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A644" s="17"/>
+      <c r="A644" s="16"/>
     </row>
     <row r="645" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A645" s="17"/>
+      <c r="A645" s="16"/>
     </row>
     <row r="646" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A646" s="17"/>
+      <c r="A646" s="16"/>
     </row>
     <row r="647" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A647" s="17"/>
+      <c r="A647" s="16"/>
     </row>
     <row r="648" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A648" s="17"/>
+      <c r="A648" s="16"/>
     </row>
     <row r="649" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A649" s="17"/>
+      <c r="A649" s="16"/>
     </row>
     <row r="650" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A650" s="17"/>
+      <c r="A650" s="16"/>
     </row>
     <row r="651" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A651" s="17"/>
+      <c r="A651" s="16"/>
     </row>
     <row r="652" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A652" s="17"/>
+      <c r="A652" s="16"/>
     </row>
     <row r="653" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A653" s="17"/>
+      <c r="A653" s="16"/>
     </row>
     <row r="654" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A654" s="17"/>
+      <c r="A654" s="16"/>
     </row>
     <row r="655" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A655" s="17"/>
+      <c r="A655" s="16"/>
     </row>
     <row r="656" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A656" s="17"/>
+      <c r="A656" s="16"/>
     </row>
     <row r="657" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A657" s="17"/>
+      <c r="A657" s="16"/>
     </row>
     <row r="658" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A658" s="17"/>
+      <c r="A658" s="16"/>
     </row>
     <row r="659" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A659" s="17"/>
+      <c r="A659" s="16"/>
     </row>
     <row r="660" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A660" s="17"/>
+      <c r="A660" s="16"/>
     </row>
     <row r="661" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A661" s="17"/>
+      <c r="A661" s="16"/>
     </row>
     <row r="662" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A662" s="17"/>
+      <c r="A662" s="16"/>
     </row>
     <row r="663" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A663" s="17"/>
+      <c r="A663" s="16"/>
     </row>
     <row r="664" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A664" s="17"/>
+      <c r="A664" s="16"/>
     </row>
     <row r="665" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A665" s="17"/>
+      <c r="A665" s="16"/>
     </row>
     <row r="666" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A666" s="17"/>
+      <c r="A666" s="16"/>
     </row>
     <row r="667" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A667" s="17"/>
+      <c r="A667" s="16"/>
     </row>
     <row r="668" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A668" s="17"/>
+      <c r="A668" s="16"/>
     </row>
     <row r="669" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A669" s="17"/>
+      <c r="A669" s="16"/>
     </row>
     <row r="670" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A670" s="17"/>
+      <c r="A670" s="16"/>
     </row>
     <row r="671" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A671" s="17"/>
+      <c r="A671" s="16"/>
     </row>
     <row r="672" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A672" s="17"/>
+      <c r="A672" s="16"/>
     </row>
     <row r="673" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A673" s="17"/>
+      <c r="A673" s="16"/>
     </row>
     <row r="674" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A674" s="17"/>
+      <c r="A674" s="16"/>
     </row>
     <row r="675" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A675" s="17"/>
+      <c r="A675" s="16"/>
     </row>
     <row r="676" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A676" s="17"/>
+      <c r="A676" s="16"/>
     </row>
     <row r="677" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A677" s="17"/>
+      <c r="A677" s="16"/>
     </row>
     <row r="678" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A678" s="17"/>
+      <c r="A678" s="16"/>
     </row>
     <row r="679" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A679" s="17"/>
+      <c r="A679" s="16"/>
     </row>
     <row r="680" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A680" s="17"/>
+      <c r="A680" s="16"/>
     </row>
     <row r="681" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A681" s="17"/>
+      <c r="A681" s="16"/>
     </row>
     <row r="682" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A682" s="17"/>
+      <c r="A682" s="16"/>
     </row>
     <row r="683" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A683" s="17"/>
+      <c r="A683" s="16"/>
     </row>
     <row r="684" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A684" s="17"/>
+      <c r="A684" s="16"/>
     </row>
     <row r="685" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A685" s="17"/>
+      <c r="A685" s="16"/>
     </row>
     <row r="686" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A686" s="17"/>
+      <c r="A686" s="16"/>
     </row>
     <row r="687" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A687" s="17"/>
+      <c r="A687" s="16"/>
     </row>
     <row r="688" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A688" s="17"/>
+      <c r="A688" s="16"/>
     </row>
     <row r="689" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A689" s="17"/>
+      <c r="A689" s="16"/>
     </row>
     <row r="690" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A690" s="17"/>
+      <c r="A690" s="16"/>
     </row>
     <row r="691" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A691" s="17"/>
+      <c r="A691" s="16"/>
     </row>
     <row r="692" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A692" s="17"/>
+      <c r="A692" s="16"/>
     </row>
     <row r="693" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A693" s="17"/>
+      <c r="A693" s="16"/>
     </row>
     <row r="694" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A694" s="17"/>
+      <c r="A694" s="16"/>
     </row>
     <row r="695" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A695" s="17"/>
+      <c r="A695" s="16"/>
     </row>
     <row r="696" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A696" s="17"/>
+      <c r="A696" s="16"/>
     </row>
     <row r="697" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A697" s="17"/>
+      <c r="A697" s="16"/>
     </row>
     <row r="698" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A698" s="17"/>
+      <c r="A698" s="16"/>
     </row>
     <row r="699" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A699" s="17"/>
+      <c r="A699" s="16"/>
     </row>
     <row r="700" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A700" s="17"/>
+      <c r="A700" s="16"/>
     </row>
     <row r="701" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A701" s="17"/>
+      <c r="A701" s="16"/>
     </row>
     <row r="702" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A702" s="17"/>
+      <c r="A702" s="16"/>
     </row>
     <row r="703" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A703" s="17"/>
+      <c r="A703" s="16"/>
     </row>
     <row r="704" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A704" s="17"/>
+      <c r="A704" s="16"/>
     </row>
     <row r="705" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A705" s="17"/>
+      <c r="A705" s="16"/>
     </row>
     <row r="706" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A706" s="17"/>
+      <c r="A706" s="16"/>
     </row>
     <row r="707" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A707" s="17"/>
+      <c r="A707" s="16"/>
     </row>
     <row r="708" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A708" s="17"/>
+      <c r="A708" s="16"/>
     </row>
     <row r="709" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A709" s="17"/>
+      <c r="A709" s="16"/>
     </row>
     <row r="710" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A710" s="17"/>
+      <c r="A710" s="16"/>
     </row>
     <row r="711" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A711" s="17"/>
+      <c r="A711" s="16"/>
     </row>
     <row r="712" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A712" s="17"/>
+      <c r="A712" s="16"/>
     </row>
     <row r="713" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A713" s="17"/>
+      <c r="A713" s="16"/>
     </row>
     <row r="714" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A714" s="17"/>
+      <c r="A714" s="16"/>
     </row>
     <row r="715" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A715" s="17"/>
+      <c r="A715" s="16"/>
     </row>
     <row r="716" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A716" s="17"/>
+      <c r="A716" s="16"/>
     </row>
     <row r="717" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A717" s="17"/>
+      <c r="A717" s="16"/>
     </row>
     <row r="718" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A718" s="17"/>
+      <c r="A718" s="16"/>
     </row>
     <row r="719" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A719" s="17"/>
+      <c r="A719" s="16"/>
     </row>
     <row r="720" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A720" s="17"/>
+      <c r="A720" s="16"/>
     </row>
     <row r="721" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A721" s="17"/>
+      <c r="A721" s="16"/>
     </row>
     <row r="722" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A722" s="17"/>
+      <c r="A722" s="16"/>
     </row>
     <row r="723" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A723" s="17"/>
+      <c r="A723" s="16"/>
     </row>
     <row r="724" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A724" s="17"/>
+      <c r="A724" s="16"/>
     </row>
     <row r="725" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A725" s="17"/>
+      <c r="A725" s="16"/>
     </row>
     <row r="726" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A726" s="17"/>
+      <c r="A726" s="16"/>
     </row>
     <row r="727" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A727" s="17"/>
+      <c r="A727" s="16"/>
     </row>
     <row r="728" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A728" s="17"/>
+      <c r="A728" s="16"/>
     </row>
     <row r="729" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A729" s="17"/>
+      <c r="A729" s="16"/>
     </row>
     <row r="730" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A730" s="17"/>
+      <c r="A730" s="16"/>
     </row>
     <row r="731" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A731" s="17"/>
+      <c r="A731" s="16"/>
     </row>
     <row r="732" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A732" s="17"/>
+      <c r="A732" s="16"/>
     </row>
     <row r="733" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A733" s="17"/>
+      <c r="A733" s="16"/>
     </row>
     <row r="734" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A734" s="17"/>
+      <c r="A734" s="16"/>
     </row>
     <row r="735" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A735" s="17"/>
+      <c r="A735" s="16"/>
     </row>
     <row r="736" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A736" s="17"/>
+      <c r="A736" s="16"/>
     </row>
     <row r="737" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A737" s="17"/>
+      <c r="A737" s="16"/>
     </row>
     <row r="738" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A738" s="17"/>
+      <c r="A738" s="16"/>
     </row>
     <row r="739" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A739" s="17"/>
+      <c r="A739" s="16"/>
     </row>
     <row r="740" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A740" s="17"/>
+      <c r="A740" s="16"/>
     </row>
     <row r="741" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A741" s="17"/>
+      <c r="A741" s="16"/>
     </row>
     <row r="742" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A742" s="17"/>
+      <c r="A742" s="16"/>
     </row>
     <row r="743" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A743" s="17"/>
+      <c r="A743" s="16"/>
     </row>
     <row r="744" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A744" s="17"/>
+      <c r="A744" s="16"/>
     </row>
     <row r="745" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A745" s="17"/>
+      <c r="A745" s="16"/>
     </row>
     <row r="746" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A746" s="17"/>
+      <c r="A746" s="16"/>
     </row>
     <row r="747" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A747" s="17"/>
+      <c r="A747" s="16"/>
     </row>
     <row r="748" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A748" s="17"/>
+      <c r="A748" s="16"/>
     </row>
     <row r="749" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A749" s="17"/>
+      <c r="A749" s="16"/>
     </row>
     <row r="750" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A750" s="17"/>
+      <c r="A750" s="16"/>
     </row>
     <row r="751" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A751" s="17"/>
+      <c r="A751" s="16"/>
     </row>
     <row r="752" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A752" s="17"/>
+      <c r="A752" s="16"/>
     </row>
     <row r="753" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A753" s="17"/>
+      <c r="A753" s="16"/>
     </row>
     <row r="754" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A754" s="17"/>
+      <c r="A754" s="16"/>
     </row>
     <row r="755" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A755" s="17"/>
+      <c r="A755" s="16"/>
     </row>
     <row r="756" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A756" s="17"/>
+      <c r="A756" s="16"/>
     </row>
     <row r="757" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A757" s="17"/>
+      <c r="A757" s="16"/>
     </row>
     <row r="758" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A758" s="17"/>
+      <c r="A758" s="16"/>
     </row>
     <row r="759" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A759" s="17"/>
+      <c r="A759" s="16"/>
     </row>
     <row r="760" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A760" s="17"/>
+      <c r="A760" s="16"/>
     </row>
     <row r="761" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A761" s="17"/>
+      <c r="A761" s="16"/>
     </row>
     <row r="762" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A762" s="17"/>
+      <c r="A762" s="16"/>
     </row>
     <row r="763" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A763" s="17"/>
+      <c r="A763" s="16"/>
     </row>
     <row r="764" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A764" s="17"/>
+      <c r="A764" s="16"/>
     </row>
     <row r="765" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A765" s="17"/>
+      <c r="A765" s="16"/>
     </row>
     <row r="766" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A766" s="17"/>
+      <c r="A766" s="16"/>
     </row>
     <row r="767" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A767" s="17"/>
+      <c r="A767" s="16"/>
     </row>
     <row r="768" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A768" s="17"/>
+      <c r="A768" s="16"/>
     </row>
     <row r="769" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A769" s="17"/>
+      <c r="A769" s="16"/>
     </row>
     <row r="770" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A770" s="17"/>
+      <c r="A770" s="16"/>
     </row>
     <row r="771" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A771" s="17"/>
+      <c r="A771" s="16"/>
     </row>
     <row r="772" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A772" s="17"/>
+      <c r="A772" s="16"/>
     </row>
     <row r="773" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A773" s="17"/>
+      <c r="A773" s="16"/>
     </row>
     <row r="774" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A774" s="17"/>
+      <c r="A774" s="16"/>
     </row>
     <row r="775" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A775" s="17"/>
+      <c r="A775" s="16"/>
     </row>
     <row r="776" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A776" s="17"/>
+      <c r="A776" s="16"/>
     </row>
     <row r="777" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A777" s="17"/>
+      <c r="A777" s="16"/>
     </row>
     <row r="778" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A778" s="17"/>
+      <c r="A778" s="16"/>
     </row>
     <row r="779" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A779" s="17"/>
+      <c r="A779" s="16"/>
     </row>
     <row r="780" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A780" s="17"/>
+      <c r="A780" s="16"/>
     </row>
     <row r="781" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A781" s="17"/>
+      <c r="A781" s="16"/>
     </row>
     <row r="782" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A782" s="17"/>
+      <c r="A782" s="16"/>
     </row>
     <row r="783" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A783" s="17"/>
+      <c r="A783" s="16"/>
     </row>
     <row r="784" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A784" s="17"/>
+      <c r="A784" s="16"/>
     </row>
     <row r="785" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A785" s="17"/>
+      <c r="A785" s="16"/>
     </row>
     <row r="786" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A786" s="17"/>
+      <c r="A786" s="16"/>
     </row>
     <row r="787" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A787" s="17"/>
+      <c r="A787" s="16"/>
     </row>
     <row r="788" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A788" s="17"/>
+      <c r="A788" s="16"/>
     </row>
     <row r="789" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A789" s="17"/>
+      <c r="A789" s="16"/>
     </row>
     <row r="790" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A790" s="17"/>
+      <c r="A790" s="16"/>
     </row>
     <row r="791" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A791" s="17"/>
+      <c r="A791" s="16"/>
     </row>
     <row r="792" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A792" s="17"/>
+      <c r="A792" s="16"/>
     </row>
     <row r="793" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A793" s="17"/>
+      <c r="A793" s="16"/>
     </row>
     <row r="794" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A794" s="17"/>
+      <c r="A794" s="16"/>
     </row>
     <row r="795" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A795" s="17"/>
+      <c r="A795" s="16"/>
     </row>
     <row r="796" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A796" s="17"/>
+      <c r="A796" s="16"/>
     </row>
     <row r="797" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A797" s="17"/>
+      <c r="A797" s="16"/>
     </row>
     <row r="798" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A798" s="17"/>
+      <c r="A798" s="16"/>
     </row>
     <row r="799" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A799" s="17"/>
+      <c r="A799" s="16"/>
     </row>
     <row r="800" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A800" s="17"/>
+      <c r="A800" s="16"/>
     </row>
     <row r="801" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A801" s="17"/>
+      <c r="A801" s="16"/>
     </row>
     <row r="802" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A802" s="17"/>
+      <c r="A802" s="16"/>
     </row>
     <row r="803" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A803" s="17"/>
+      <c r="A803" s="16"/>
     </row>
     <row r="804" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A804" s="17"/>
+      <c r="A804" s="16"/>
     </row>
     <row r="805" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A805" s="17"/>
+      <c r="A805" s="16"/>
     </row>
     <row r="806" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A806" s="17"/>
+      <c r="A806" s="16"/>
     </row>
     <row r="807" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A807" s="17"/>
+      <c r="A807" s="16"/>
     </row>
     <row r="808" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A808" s="17"/>
+      <c r="A808" s="16"/>
     </row>
     <row r="809" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A809" s="17"/>
+      <c r="A809" s="16"/>
     </row>
     <row r="810" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A810" s="17"/>
+      <c r="A810" s="16"/>
     </row>
     <row r="811" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A811" s="17"/>
+      <c r="A811" s="16"/>
     </row>
     <row r="812" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A812" s="17"/>
+      <c r="A812" s="16"/>
     </row>
     <row r="813" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A813" s="17"/>
+      <c r="A813" s="16"/>
     </row>
     <row r="814" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A814" s="17"/>
+      <c r="A814" s="16"/>
     </row>
     <row r="815" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A815" s="17"/>
+      <c r="A815" s="16"/>
     </row>
     <row r="816" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A816" s="17"/>
+      <c r="A816" s="16"/>
     </row>
     <row r="817" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A817" s="17"/>
+      <c r="A817" s="16"/>
     </row>
     <row r="818" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A818" s="17"/>
+      <c r="A818" s="16"/>
     </row>
     <row r="819" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A819" s="17"/>
+      <c r="A819" s="16"/>
     </row>
     <row r="820" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A820" s="17"/>
+      <c r="A820" s="16"/>
     </row>
     <row r="821" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A821" s="17"/>
+      <c r="A821" s="16"/>
     </row>
     <row r="822" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A822" s="17"/>
+      <c r="A822" s="16"/>
     </row>
     <row r="823" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A823" s="17"/>
+      <c r="A823" s="16"/>
     </row>
     <row r="824" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A824" s="17"/>
+      <c r="A824" s="16"/>
     </row>
     <row r="825" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A825" s="17"/>
+      <c r="A825" s="16"/>
     </row>
     <row r="826" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A826" s="17"/>
+      <c r="A826" s="16"/>
     </row>
     <row r="827" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A827" s="17"/>
+      <c r="A827" s="16"/>
     </row>
     <row r="828" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A828" s="17"/>
+      <c r="A828" s="16"/>
     </row>
     <row r="829" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A829" s="17"/>
+      <c r="A829" s="16"/>
     </row>
     <row r="830" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A830" s="17"/>
+      <c r="A830" s="16"/>
     </row>
     <row r="831" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A831" s="17"/>
+      <c r="A831" s="16"/>
     </row>
     <row r="832" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A832" s="17"/>
+      <c r="A832" s="16"/>
     </row>
     <row r="833" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A833" s="17"/>
+      <c r="A833" s="16"/>
     </row>
     <row r="834" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A834" s="17"/>
+      <c r="A834" s="16"/>
     </row>
     <row r="835" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A835" s="17"/>
+      <c r="A835" s="16"/>
     </row>
     <row r="836" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A836" s="17"/>
+      <c r="A836" s="16"/>
     </row>
     <row r="837" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A837" s="17"/>
+      <c r="A837" s="16"/>
     </row>
     <row r="838" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A838" s="17"/>
+      <c r="A838" s="16"/>
     </row>
     <row r="839" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A839" s="17"/>
+      <c r="A839" s="16"/>
     </row>
     <row r="840" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A840" s="17"/>
+      <c r="A840" s="16"/>
     </row>
     <row r="841" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A841" s="17"/>
+      <c r="A841" s="16"/>
     </row>
     <row r="842" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A842" s="17"/>
+      <c r="A842" s="16"/>
     </row>
     <row r="843" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A843" s="17"/>
+      <c r="A843" s="16"/>
     </row>
     <row r="844" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A844" s="17"/>
+      <c r="A844" s="16"/>
     </row>
     <row r="845" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A845" s="17"/>
+      <c r="A845" s="16"/>
     </row>
     <row r="846" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A846" s="17"/>
+      <c r="A846" s="16"/>
     </row>
     <row r="847" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A847" s="17"/>
+      <c r="A847" s="16"/>
     </row>
     <row r="848" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A848" s="17"/>
+      <c r="A848" s="16"/>
     </row>
     <row r="849" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A849" s="17"/>
+      <c r="A849" s="16"/>
     </row>
     <row r="850" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A850" s="17"/>
+      <c r="A850" s="16"/>
     </row>
     <row r="851" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A851" s="17"/>
+      <c r="A851" s="16"/>
     </row>
     <row r="852" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A852" s="17"/>
+      <c r="A852" s="16"/>
     </row>
     <row r="853" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A853" s="17"/>
+      <c r="A853" s="16"/>
     </row>
     <row r="854" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A854" s="17"/>
+      <c r="A854" s="16"/>
     </row>
     <row r="855" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A855" s="17"/>
+      <c r="A855" s="16"/>
     </row>
     <row r="856" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A856" s="17"/>
+      <c r="A856" s="16"/>
     </row>
     <row r="857" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A857" s="17"/>
+      <c r="A857" s="16"/>
     </row>
     <row r="858" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A858" s="17"/>
+      <c r="A858" s="16"/>
     </row>
     <row r="859" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A859" s="17"/>
+      <c r="A859" s="16"/>
     </row>
     <row r="860" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A860" s="17"/>
+      <c r="A860" s="16"/>
     </row>
     <row r="861" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A861" s="17"/>
+      <c r="A861" s="16"/>
     </row>
     <row r="862" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A862" s="17"/>
+      <c r="A862" s="16"/>
     </row>
     <row r="863" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A863" s="17"/>
+      <c r="A863" s="16"/>
     </row>
     <row r="864" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A864" s="17"/>
+      <c r="A864" s="16"/>
     </row>
     <row r="865" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A865" s="17"/>
+      <c r="A865" s="16"/>
     </row>
     <row r="866" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A866" s="17"/>
+      <c r="A866" s="16"/>
     </row>
     <row r="867" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A867" s="17"/>
+      <c r="A867" s="16"/>
     </row>
     <row r="868" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A868" s="17"/>
+      <c r="A868" s="16"/>
     </row>
     <row r="869" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A869" s="17"/>
+      <c r="A869" s="16"/>
     </row>
     <row r="870" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A870" s="17"/>
+      <c r="A870" s="16"/>
     </row>
     <row r="871" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A871" s="17"/>
+      <c r="A871" s="16"/>
     </row>
     <row r="872" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A872" s="17"/>
+      <c r="A872" s="16"/>
     </row>
     <row r="873" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A873" s="17"/>
+      <c r="A873" s="16"/>
     </row>
     <row r="874" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A874" s="17"/>
+      <c r="A874" s="16"/>
     </row>
     <row r="875" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A875" s="17"/>
+      <c r="A875" s="16"/>
     </row>
     <row r="876" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A876" s="17"/>
+      <c r="A876" s="16"/>
     </row>
     <row r="877" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A877" s="17"/>
+      <c r="A877" s="16"/>
     </row>
     <row r="878" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A878" s="17"/>
+      <c r="A878" s="16"/>
     </row>
     <row r="879" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A879" s="17"/>
+      <c r="A879" s="16"/>
     </row>
     <row r="880" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A880" s="17"/>
+      <c r="A880" s="16"/>
     </row>
     <row r="881" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A881" s="17"/>
+      <c r="A881" s="16"/>
     </row>
     <row r="882" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A882" s="17"/>
+      <c r="A882" s="16"/>
     </row>
     <row r="883" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A883" s="17"/>
+      <c r="A883" s="16"/>
     </row>
     <row r="884" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A884" s="17"/>
+      <c r="A884" s="16"/>
     </row>
     <row r="885" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A885" s="17"/>
+      <c r="A885" s="16"/>
     </row>
     <row r="886" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A886" s="17"/>
+      <c r="A886" s="16"/>
     </row>
     <row r="887" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A887" s="17"/>
+      <c r="A887" s="16"/>
     </row>
     <row r="888" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A888" s="17"/>
+      <c r="A888" s="16"/>
     </row>
     <row r="889" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A889" s="17"/>
+      <c r="A889" s="16"/>
     </row>
     <row r="890" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A890" s="17"/>
+      <c r="A890" s="16"/>
     </row>
     <row r="891" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A891" s="17"/>
+      <c r="A891" s="16"/>
     </row>
     <row r="892" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A892" s="17"/>
+      <c r="A892" s="16"/>
     </row>
     <row r="893" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A893" s="17"/>
+      <c r="A893" s="16"/>
     </row>
     <row r="894" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A894" s="17"/>
+      <c r="A894" s="16"/>
     </row>
     <row r="895" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A895" s="17"/>
+      <c r="A895" s="16"/>
     </row>
     <row r="896" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A896" s="17"/>
+      <c r="A896" s="16"/>
     </row>
     <row r="897" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A897" s="17"/>
+      <c r="A897" s="16"/>
     </row>
     <row r="898" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A898" s="17"/>
+      <c r="A898" s="16"/>
     </row>
     <row r="899" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A899" s="17"/>
+      <c r="A899" s="16"/>
     </row>
     <row r="900" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A900" s="17"/>
+      <c r="A900" s="16"/>
     </row>
     <row r="901" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A901" s="17"/>
+      <c r="A901" s="16"/>
     </row>
     <row r="902" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A902" s="17"/>
+      <c r="A902" s="16"/>
     </row>
     <row r="903" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A903" s="17"/>
+      <c r="A903" s="16"/>
     </row>
     <row r="904" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A904" s="17"/>
+      <c r="A904" s="16"/>
     </row>
     <row r="905" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A905" s="17"/>
+      <c r="A905" s="16"/>
     </row>
     <row r="906" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A906" s="17"/>
+      <c r="A906" s="16"/>
     </row>
     <row r="907" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A907" s="17"/>
+      <c r="A907" s="16"/>
     </row>
     <row r="908" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A908" s="17"/>
+      <c r="A908" s="16"/>
     </row>
     <row r="909" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A909" s="17"/>
+      <c r="A909" s="16"/>
     </row>
     <row r="910" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A910" s="17"/>
+      <c r="A910" s="16"/>
     </row>
     <row r="911" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A911" s="17"/>
+      <c r="A911" s="16"/>
     </row>
     <row r="912" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A912" s="17"/>
+      <c r="A912" s="16"/>
     </row>
     <row r="913" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A913" s="17"/>
+      <c r="A913" s="16"/>
     </row>
     <row r="914" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A914" s="17"/>
+      <c r="A914" s="16"/>
     </row>
     <row r="915" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A915" s="17"/>
+      <c r="A915" s="16"/>
     </row>
     <row r="916" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A916" s="17"/>
+      <c r="A916" s="16"/>
     </row>
     <row r="917" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A917" s="17"/>
+      <c r="A917" s="16"/>
     </row>
     <row r="918" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A918" s="17"/>
+      <c r="A918" s="16"/>
     </row>
     <row r="919" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A919" s="17"/>
+      <c r="A919" s="16"/>
     </row>
     <row r="920" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A920" s="17"/>
+      <c r="A920" s="16"/>
     </row>
     <row r="921" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A921" s="17"/>
+      <c r="A921" s="16"/>
     </row>
     <row r="922" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A922" s="17"/>
+      <c r="A922" s="16"/>
     </row>
     <row r="923" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A923" s="17"/>
+      <c r="A923" s="16"/>
     </row>
     <row r="924" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A924" s="17"/>
+      <c r="A924" s="16"/>
     </row>
     <row r="925" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A925" s="17"/>
+      <c r="A925" s="16"/>
     </row>
     <row r="926" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A926" s="17"/>
+      <c r="A926" s="16"/>
     </row>
     <row r="927" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A927" s="17"/>
+      <c r="A927" s="16"/>
     </row>
     <row r="928" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A928" s="17"/>
+      <c r="A928" s="16"/>
     </row>
     <row r="929" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A929" s="17"/>
+      <c r="A929" s="16"/>
     </row>
     <row r="930" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A930" s="17"/>
+      <c r="A930" s="16"/>
     </row>
     <row r="931" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A931" s="17"/>
+      <c r="A931" s="16"/>
     </row>
     <row r="932" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A932" s="17"/>
+      <c r="A932" s="16"/>
     </row>
     <row r="933" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A933" s="17"/>
+      <c r="A933" s="16"/>
     </row>
     <row r="934" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A934" s="17"/>
+      <c r="A934" s="16"/>
     </row>
     <row r="935" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A935" s="17"/>
+      <c r="A935" s="16"/>
     </row>
     <row r="936" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A936" s="17"/>
+      <c r="A936" s="16"/>
     </row>
     <row r="937" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A937" s="17"/>
+      <c r="A937" s="16"/>
     </row>
     <row r="938" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A938" s="17"/>
+      <c r="A938" s="16"/>
     </row>
     <row r="939" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A939" s="17"/>
+      <c r="A939" s="16"/>
     </row>
     <row r="940" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A940" s="17"/>
+      <c r="A940" s="16"/>
     </row>
     <row r="941" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A941" s="17"/>
+      <c r="A941" s="16"/>
     </row>
     <row r="942" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A942" s="17"/>
+      <c r="A942" s="16"/>
     </row>
     <row r="943" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A943" s="17"/>
+      <c r="A943" s="16"/>
     </row>
     <row r="944" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A944" s="17"/>
+      <c r="A944" s="16"/>
     </row>
     <row r="945" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A945" s="17"/>
+      <c r="A945" s="16"/>
     </row>
     <row r="946" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A946" s="17"/>
+      <c r="A946" s="16"/>
     </row>
     <row r="947" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A947" s="17"/>
+      <c r="A947" s="16"/>
     </row>
     <row r="948" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A948" s="17"/>
+      <c r="A948" s="16"/>
     </row>
     <row r="949" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A949" s="17"/>
+      <c r="A949" s="16"/>
     </row>
     <row r="950" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A950" s="17"/>
+      <c r="A950" s="16"/>
     </row>
     <row r="951" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A951" s="17"/>
+      <c r="A951" s="16"/>
     </row>
     <row r="952" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A952" s="17"/>
+      <c r="A952" s="16"/>
     </row>
     <row r="953" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A953" s="17"/>
+      <c r="A953" s="16"/>
     </row>
     <row r="954" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A954" s="17"/>
+      <c r="A954" s="16"/>
     </row>
     <row r="955" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A955" s="17"/>
+      <c r="A955" s="16"/>
     </row>
     <row r="956" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A956" s="17"/>
+      <c r="A956" s="16"/>
     </row>
     <row r="957" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A957" s="17"/>
+      <c r="A957" s="16"/>
     </row>
     <row r="958" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A958" s="17"/>
+      <c r="A958" s="16"/>
     </row>
     <row r="959" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A959" s="17"/>
+      <c r="A959" s="16"/>
     </row>
     <row r="960" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A960" s="17"/>
+      <c r="A960" s="16"/>
     </row>
     <row r="961" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A961" s="17"/>
+      <c r="A961" s="16"/>
     </row>
     <row r="962" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A962" s="17"/>
+      <c r="A962" s="16"/>
     </row>
     <row r="963" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A963" s="17"/>
+      <c r="A963" s="16"/>
     </row>
     <row r="964" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A964" s="17"/>
+      <c r="A964" s="16"/>
     </row>
     <row r="965" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A965" s="17"/>
+      <c r="A965" s="16"/>
     </row>
     <row r="966" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A966" s="17"/>
+      <c r="A966" s="16"/>
     </row>
     <row r="967" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A967" s="17"/>
+      <c r="A967" s="16"/>
     </row>
     <row r="968" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A968" s="17"/>
+      <c r="A968" s="16"/>
     </row>
     <row r="969" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A969" s="17"/>
+      <c r="A969" s="16"/>
     </row>
     <row r="970" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A970" s="17"/>
+      <c r="A970" s="16"/>
     </row>
     <row r="971" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A971" s="17"/>
+      <c r="A971" s="16"/>
     </row>
     <row r="972" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A972" s="17"/>
+      <c r="A972" s="16"/>
     </row>
     <row r="973" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A973" s="17"/>
+      <c r="A973" s="16"/>
     </row>
     <row r="974" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A974" s="17"/>
+      <c r="A974" s="16"/>
     </row>
     <row r="975" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A975" s="17"/>
+      <c r="A975" s="16"/>
     </row>
     <row r="976" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A976" s="17"/>
+      <c r="A976" s="16"/>
     </row>
     <row r="977" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A977" s="17"/>
+      <c r="A977" s="16"/>
     </row>
     <row r="978" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A978" s="17"/>
+      <c r="A978" s="16"/>
     </row>
     <row r="979" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A979" s="17"/>
+      <c r="A979" s="16"/>
     </row>
     <row r="980" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A980" s="17"/>
+      <c r="A980" s="16"/>
     </row>
     <row r="981" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A981" s="17"/>
+      <c r="A981" s="16"/>
     </row>
     <row r="982" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A982" s="17"/>
+      <c r="A982" s="16"/>
     </row>
     <row r="983" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A983" s="17"/>
+      <c r="A983" s="16"/>
     </row>
     <row r="984" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A984" s="17"/>
+      <c r="A984" s="16"/>
     </row>
     <row r="985" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A985" s="17"/>
+      <c r="A985" s="16"/>
     </row>
     <row r="986" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A986" s="17"/>
+      <c r="A986" s="16"/>
     </row>
     <row r="987" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A987" s="17"/>
+      <c r="A987" s="16"/>
     </row>
     <row r="988" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A988" s="17"/>
+      <c r="A988" s="16"/>
     </row>
     <row r="989" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A989" s="17"/>
+      <c r="A989" s="16"/>
     </row>
     <row r="990" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A990" s="17"/>
+      <c r="A990" s="16"/>
     </row>
     <row r="991" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A991" s="17"/>
+      <c r="A991" s="16"/>
     </row>
     <row r="992" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A992" s="17"/>
+      <c r="A992" s="16"/>
     </row>
     <row r="993" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A993" s="17"/>
+      <c r="A993" s="16"/>
     </row>
     <row r="994" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A994" s="17"/>
+      <c r="A994" s="16"/>
     </row>
     <row r="995" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A995" s="17"/>
+      <c r="A995" s="16"/>
     </row>
     <row r="996" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A996" s="17"/>
+      <c r="A996" s="16"/>
     </row>
     <row r="997" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A997" s="17"/>
+      <c r="A997" s="16"/>
     </row>
     <row r="998" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A998" s="17"/>
+      <c r="A998" s="16"/>
     </row>
     <row r="999" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A999" s="17"/>
+      <c r="A999" s="16"/>
     </row>
     <row r="1000" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1000" s="17"/>
+      <c r="A1000" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7866,24 +7861,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>43</v>
+    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>51</v>
+      <c r="A2" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>58</v>
+      <c r="A3" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>182</v>
+      <c r="A4" s="8" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/private/uploads/uploadFileTest.xlsx
+++ b/private/uploads/uploadFileTest.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natan.morote\Documents\accuarium-back\private\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C59C8E-56BC-4F51-836C-61ACE01226FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCF4108-3CF0-46F8-B2FF-C331DAD1AA46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="3384" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-4275" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species" sheetId="1" r:id="rId1"/>
     <sheet name="family" sheetId="2" r:id="rId2"/>
-    <sheet name="behavior" sheetId="3" r:id="rId3"/>
-    <sheet name="type" sheetId="4" r:id="rId4"/>
-    <sheet name="compatibility" sheetId="5" r:id="rId5"/>
-    <sheet name="hardness units" sheetId="6" r:id="rId6"/>
+    <sheet name="group" sheetId="8" r:id="rId3"/>
+    <sheet name="behavior" sheetId="3" r:id="rId4"/>
+    <sheet name="type" sheetId="4" r:id="rId5"/>
+    <sheet name="compatibility" sheetId="5" r:id="rId6"/>
+    <sheet name="hardness units" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="172">
   <si>
     <t>_id</t>
   </si>
@@ -107,12 +108,6 @@
     <t>maxKh</t>
   </si>
   <si>
-    <t>litersSpecimen</t>
-  </si>
-  <si>
-    <t>minTankLiters</t>
-  </si>
-  <si>
     <t>depth</t>
   </si>
   <si>
@@ -269,207 +264,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Anabántidos (Laberíntidos)</t>
-  </si>
-  <si>
-    <t>anabantoidei</t>
-  </si>
-  <si>
-    <t>Limpieza</t>
-  </si>
-  <si>
-    <t>Ancistrus</t>
-  </si>
-  <si>
-    <t>Comealgas</t>
-  </si>
-  <si>
-    <t>Anguiliformes</t>
-  </si>
-  <si>
-    <t>Cardumen</t>
-  </si>
-  <si>
-    <t>Bivalvos</t>
-  </si>
-  <si>
-    <t>Pequeño</t>
-  </si>
-  <si>
-    <t>Carácidos</t>
-  </si>
-  <si>
-    <t>Ornamental</t>
-  </si>
-  <si>
-    <t>Gasterópodos</t>
-  </si>
-  <si>
-    <t>Fondo</t>
-  </si>
-  <si>
-    <t>Cíclidos</t>
-  </si>
-  <si>
-    <t>Ciprinido</t>
-  </si>
-  <si>
-    <t>Crustáceos</t>
-  </si>
-  <si>
-    <t>Gymnotiformes</t>
-  </si>
-  <si>
-    <t>Loricaridos</t>
-  </si>
-  <si>
-    <t>Melanotaénidos</t>
-  </si>
-  <si>
-    <t>Osteoglósidos (arawana)</t>
-  </si>
-  <si>
-    <t>Poecílidos</t>
-  </si>
-  <si>
-    <t>Rajiformes</t>
-  </si>
-  <si>
-    <t>Silúridos</t>
-  </si>
-  <si>
-    <t>Tetraodontiformes (pez globo)</t>
-  </si>
-  <si>
-    <t>Balitóridos (Lonchas)</t>
-  </si>
-  <si>
-    <t>catostomidae</t>
-  </si>
-  <si>
-    <t>poeciliidae</t>
-  </si>
-  <si>
-    <t>Characids</t>
-  </si>
-  <si>
-    <t>characidae</t>
-  </si>
-  <si>
-    <t>gyrinocheilidae</t>
-  </si>
-  <si>
-    <t>Caracoles</t>
-  </si>
-  <si>
-    <t>amphilidae</t>
-  </si>
-  <si>
-    <t>Africano</t>
-  </si>
-  <si>
-    <t>Anguila</t>
-  </si>
-  <si>
-    <t>Arcoiris</t>
-  </si>
-  <si>
-    <t>Arowanas</t>
-  </si>
-  <si>
-    <t>Bettas</t>
-  </si>
-  <si>
-    <t>Botias</t>
-  </si>
-  <si>
-    <t>Corydoras</t>
-  </si>
-  <si>
-    <t>Danios</t>
-  </si>
-  <si>
-    <t>Discos</t>
-  </si>
-  <si>
-    <t>Escalares</t>
-  </si>
-  <si>
-    <t>Guppies</t>
-  </si>
-  <si>
-    <t>Killis</t>
-  </si>
-  <si>
-    <t>Labeos</t>
-  </si>
-  <si>
-    <t>Mollies</t>
-  </si>
-  <si>
-    <t>Oscar</t>
-  </si>
-  <si>
-    <t>Peces cocodrilo</t>
-  </si>
-  <si>
-    <t>Peces cuchillo</t>
-  </si>
-  <si>
-    <t>Peces globo</t>
-  </si>
-  <si>
-    <t>Peces sierra</t>
-  </si>
-  <si>
-    <t>Pirañas</t>
-  </si>
-  <si>
-    <t>Platies</t>
-  </si>
-  <si>
-    <t>Ramirezi</t>
-  </si>
-  <si>
-    <t>Rasboras</t>
-  </si>
-  <si>
-    <t>Rayas</t>
-  </si>
-  <si>
-    <t>Tetra</t>
-  </si>
-  <si>
-    <t>Xiphos</t>
-  </si>
-  <si>
-    <t>Barbos</t>
-  </si>
-  <si>
-    <t>Ciclidos Victoria</t>
-  </si>
-  <si>
-    <t>Ciclidos Malawi</t>
-  </si>
-  <si>
-    <t>Ciclidos Tanganika</t>
-  </si>
-  <si>
-    <t>Ciclidos asiáticos</t>
-  </si>
-  <si>
-    <t>Ciclidos norteamericanos</t>
-  </si>
-  <si>
-    <t>Ciclidos centroamericanos</t>
-  </si>
-  <si>
-    <t>Ciclidos sudamericanos</t>
-  </si>
-  <si>
-    <t>Cíclidos africanos fluviales</t>
-  </si>
-  <si>
     <t>Jumper</t>
   </si>
   <si>
@@ -588,13 +382,187 @@
   </si>
   <si>
     <t>gH</t>
+  </si>
+  <si>
+    <t>catostomids</t>
+  </si>
+  <si>
+    <t>cyprinids</t>
+  </si>
+  <si>
+    <t>characids</t>
+  </si>
+  <si>
+    <t>gyrinocheilids</t>
+  </si>
+  <si>
+    <t>loricarids</t>
+  </si>
+  <si>
+    <t>amphilids</t>
+  </si>
+  <si>
+    <t>cichlids</t>
+  </si>
+  <si>
+    <t>polycentrids</t>
+  </si>
+  <si>
+    <t>melanotaenids</t>
+  </si>
+  <si>
+    <t>osteoglosides</t>
+  </si>
+  <si>
+    <t>poecylids</t>
+  </si>
+  <si>
+    <t>silurids</t>
+  </si>
+  <si>
+    <t>tetraodontids</t>
+  </si>
+  <si>
+    <t>anablepids</t>
+  </si>
+  <si>
+    <t>fundulids</t>
+  </si>
+  <si>
+    <t>profundulus</t>
+  </si>
+  <si>
+    <t>eels</t>
+  </si>
+  <si>
+    <t>rainbow</t>
+  </si>
+  <si>
+    <t>arowanas</t>
+  </si>
+  <si>
+    <t>bettas</t>
+  </si>
+  <si>
+    <t>botias</t>
+  </si>
+  <si>
+    <t>corydoras</t>
+  </si>
+  <si>
+    <t>danios</t>
+  </si>
+  <si>
+    <t>discus</t>
+  </si>
+  <si>
+    <t>scalars</t>
+  </si>
+  <si>
+    <t>guppies</t>
+  </si>
+  <si>
+    <t>killis</t>
+  </si>
+  <si>
+    <t>labeos</t>
+  </si>
+  <si>
+    <t>mollies</t>
+  </si>
+  <si>
+    <t>oscar</t>
+  </si>
+  <si>
+    <t>crocodilefishes</t>
+  </si>
+  <si>
+    <t>knifefishes</t>
+  </si>
+  <si>
+    <t>blowfishes</t>
+  </si>
+  <si>
+    <t>sawfishes</t>
+  </si>
+  <si>
+    <t>piranhas</t>
+  </si>
+  <si>
+    <t>platies</t>
+  </si>
+  <si>
+    <t>rams</t>
+  </si>
+  <si>
+    <t>rasboras</t>
+  </si>
+  <si>
+    <t>stingrays</t>
+  </si>
+  <si>
+    <t>tetras</t>
+  </si>
+  <si>
+    <t>xiphos</t>
+  </si>
+  <si>
+    <t>barbs</t>
+  </si>
+  <si>
+    <t>south american cichlids</t>
+  </si>
+  <si>
+    <t>central american cichlids</t>
+  </si>
+  <si>
+    <t>north american cichlids</t>
+  </si>
+  <si>
+    <t>african rives cichlids</t>
+  </si>
+  <si>
+    <t>victoria cichlids</t>
+  </si>
+  <si>
+    <t>malawi cichlids</t>
+  </si>
+  <si>
+    <t>tanganika cichlids</t>
+  </si>
+  <si>
+    <t>catfishes</t>
+  </si>
+  <si>
+    <t>volumeSpecimen</t>
+  </si>
+  <si>
+    <t>minTankVoume</t>
+  </si>
+  <si>
+    <t>coupleCoexistence</t>
+  </si>
+  <si>
+    <t>onlyMascCoexistence</t>
+  </si>
+  <si>
+    <t>onlyFemCoexistence</t>
+  </si>
+  <si>
+    <t>haremCoexistence</t>
+  </si>
+  <si>
+    <t>inverseHaremCoexistence</t>
+  </si>
+  <si>
+    <t>indivCoexistence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -645,6 +613,13 @@
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF44546A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -660,7 +635,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -677,11 +652,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF8EAADB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -715,6 +705,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -930,11 +925,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI7"/>
+  <dimension ref="A1:AO7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R7" sqref="R7"/>
+      <selection pane="bottomLeft" activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -946,16 +941,18 @@
     <col min="5" max="5" width="11.69921875" customWidth="1"/>
     <col min="6" max="6" width="25.09765625" customWidth="1"/>
     <col min="7" max="7" width="11.69921875" customWidth="1"/>
-    <col min="8" max="25" width="7.59765625" customWidth="1"/>
-    <col min="26" max="26" width="12.19921875" customWidth="1"/>
-    <col min="27" max="29" width="7.59765625" customWidth="1"/>
-    <col min="30" max="30" width="15" customWidth="1"/>
-    <col min="31" max="31" width="16.5" customWidth="1"/>
-    <col min="32" max="34" width="7.59765625" customWidth="1"/>
-    <col min="35" max="35" width="16.59765625" customWidth="1"/>
+    <col min="8" max="23" width="7.59765625" customWidth="1"/>
+    <col min="24" max="30" width="12" customWidth="1"/>
+    <col min="31" max="31" width="7.59765625" customWidth="1"/>
+    <col min="32" max="32" width="12.19921875" customWidth="1"/>
+    <col min="33" max="35" width="7.59765625" customWidth="1"/>
+    <col min="36" max="36" width="15" customWidth="1"/>
+    <col min="37" max="37" width="16.5" customWidth="1"/>
+    <col min="38" max="40" width="7.59765625" customWidth="1"/>
+    <col min="41" max="41" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1022,73 +1019,91 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA1" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB1" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD1" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AL1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AM1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="K2" s="7">
         <v>4.5</v>
@@ -1107,7 +1122,7 @@
         <v>8</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>182</v>
+        <v>113</v>
       </c>
       <c r="R2" s="8">
         <v>5</v>
@@ -1116,7 +1131,7 @@
         <v>19</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>182</v>
+        <v>113</v>
       </c>
       <c r="U2" s="8">
         <v>2</v>
@@ -1130,43 +1145,61 @@
       <c r="X2" s="7">
         <v>100</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Y2" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" s="8" t="s">
+    </row>
+    <row r="3" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="K3" s="7">
         <v>4.5</v>
@@ -1187,7 +1220,7 @@
         <v>7.5</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R3" s="8">
         <v>100</v>
@@ -1196,7 +1229,7 @@
         <v>150</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U3" s="10">
         <v>50</v>
@@ -1210,43 +1243,61 @@
       <c r="X3" s="7">
         <v>100</v>
       </c>
-      <c r="Y3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC3" s="7" t="s">
+      <c r="Y3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="G4" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="K4" s="7">
         <v>4.5</v>
@@ -1267,7 +1318,7 @@
         <v>8</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R4" s="8">
         <v>30</v>
@@ -1276,7 +1327,7 @@
         <v>60</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U4" s="8">
         <v>15</v>
@@ -1290,43 +1341,61 @@
       <c r="X4" s="7">
         <v>100</v>
       </c>
-      <c r="Y4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC4" s="7" t="s">
+      <c r="Y4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI4" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="E5" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="K5" s="7">
         <v>4.5</v>
@@ -1354,43 +1423,61 @@
       <c r="X5" s="7">
         <v>100</v>
       </c>
-      <c r="Y5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC5" s="7" t="s">
+      <c r="Y5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI5" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="F6" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="K6" s="7">
         <v>4.5</v>
@@ -1418,43 +1505,61 @@
       <c r="X6" s="7">
         <v>100</v>
       </c>
-      <c r="Y6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC6" s="7" t="s">
+      <c r="Y6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI6" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="K7" s="7">
         <v>4.5</v>
@@ -1482,19 +1587,37 @@
       <c r="X7" s="7">
         <v>100</v>
       </c>
-      <c r="Y7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC7" s="7" t="s">
-        <v>58</v>
+      <c r="Y7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI7" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -1514,7 +1637,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" activeCellId="1" sqref="B17 D36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1527,12 +1652,12 @@
     <col min="11" max="26" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -1560,331 +1685,230 @@
       <c r="Z1" s="11"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="B2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>80</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>82</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>84</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>86</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>88</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>73</v>
-      </c>
+      <c r="B10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>72</v>
-      </c>
+      <c r="B20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="12"/>
     </row>
     <row r="21" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="8" t="s">
-        <v>101</v>
-      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
     </row>
     <row r="22" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
-      <c r="C22" s="9" t="s">
-        <v>102</v>
-      </c>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>106</v>
-      </c>
+      <c r="C24" s="9"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>108</v>
-      </c>
+      <c r="C25" s="8"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G26" s="7" t="s">
-        <v>109</v>
-      </c>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="7" t="s">
-        <v>110</v>
-      </c>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G28" s="7" t="s">
-        <v>111</v>
-      </c>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G29" s="7" t="s">
-        <v>112</v>
-      </c>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G30" s="7" t="s">
-        <v>113</v>
-      </c>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G31" s="7" t="s">
-        <v>114</v>
-      </c>
+      <c r="G31" s="7"/>
     </row>
     <row r="32" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G32" s="7" t="s">
-        <v>115</v>
-      </c>
+      <c r="G32" s="7"/>
     </row>
     <row r="33" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G33" s="7" t="s">
-        <v>116</v>
-      </c>
+      <c r="G33" s="7"/>
     </row>
     <row r="34" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G34" s="7" t="s">
-        <v>117</v>
-      </c>
+      <c r="G34" s="7"/>
     </row>
     <row r="35" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G35" s="7" t="s">
-        <v>118</v>
-      </c>
+      <c r="G35" s="7"/>
     </row>
     <row r="36" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G36" s="7" t="s">
-        <v>119</v>
-      </c>
+      <c r="G36" s="7"/>
     </row>
     <row r="37" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G37" s="7" t="s">
-        <v>120</v>
-      </c>
+      <c r="G37" s="7"/>
     </row>
     <row r="38" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G38" s="7" t="s">
-        <v>121</v>
-      </c>
+      <c r="G38" s="7"/>
     </row>
     <row r="39" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G39" s="7" t="s">
-        <v>122</v>
-      </c>
+      <c r="G39" s="7"/>
     </row>
     <row r="40" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G40" s="7" t="s">
-        <v>123</v>
-      </c>
+      <c r="G40" s="7"/>
     </row>
     <row r="41" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G41" s="7" t="s">
-        <v>124</v>
-      </c>
+      <c r="G41" s="7"/>
     </row>
     <row r="42" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G42" s="7" t="s">
-        <v>125</v>
-      </c>
+      <c r="G42" s="7"/>
     </row>
     <row r="43" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G43" s="7" t="s">
-        <v>126</v>
-      </c>
+      <c r="G43" s="7"/>
     </row>
     <row r="44" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G44" s="7" t="s">
-        <v>127</v>
-      </c>
+      <c r="G44" s="7"/>
     </row>
     <row r="45" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G45" s="7" t="s">
-        <v>128</v>
-      </c>
+      <c r="G45" s="7"/>
     </row>
     <row r="46" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G46" s="7" t="s">
-        <v>129</v>
-      </c>
+      <c r="G46" s="7"/>
     </row>
     <row r="47" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G47" s="7" t="s">
-        <v>130</v>
-      </c>
+      <c r="G47" s="7"/>
     </row>
     <row r="48" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G48" s="7" t="s">
-        <v>131</v>
-      </c>
+      <c r="G48" s="7"/>
     </row>
     <row r="49" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G49" s="7" t="s">
-        <v>132</v>
-      </c>
+      <c r="G49" s="7"/>
     </row>
     <row r="50" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G50" s="7" t="s">
-        <v>133</v>
-      </c>
+      <c r="G50" s="7"/>
     </row>
     <row r="51" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G51" s="8" t="s">
-        <v>134</v>
-      </c>
+      <c r="G51" s="8"/>
     </row>
     <row r="52" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G52" s="8" t="s">
-        <v>135</v>
-      </c>
+      <c r="G52" s="8"/>
     </row>
     <row r="53" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G53" s="8" t="s">
-        <v>136</v>
-      </c>
+      <c r="G53" s="8"/>
     </row>
     <row r="54" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G54" s="8" t="s">
-        <v>137</v>
-      </c>
+      <c r="G54" s="8"/>
     </row>
     <row r="55" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G55" s="8" t="s">
-        <v>138</v>
-      </c>
+      <c r="G55" s="8"/>
     </row>
     <row r="56" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G56" s="8" t="s">
-        <v>139</v>
-      </c>
+      <c r="G56" s="8"/>
     </row>
     <row r="57" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G57" s="8" t="s">
-        <v>140</v>
-      </c>
+      <c r="G57" s="8"/>
     </row>
     <row r="58" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G58" s="8" t="s">
-        <v>141</v>
-      </c>
+      <c r="G58" s="8"/>
     </row>
     <row r="59" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G59" s="8" t="s">
-        <v>142</v>
-      </c>
+      <c r="G59" s="8"/>
     </row>
     <row r="60" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="61" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2829,168 +2853,403 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD524466-DF09-4E02-803E-07741E10F7DC}">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B2:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>154</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>156</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>160</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>163</v>
+        <v>94</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>164</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>166</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>167</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>169</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>170</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>171</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>173</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>175</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>176</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2998,7 +3257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
@@ -3011,10 +3270,10 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -3043,17 +3302,17 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>177</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
-        <v>178</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>179</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4058,7 +4317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4133,7 +4392,7 @@
         <v>badis badis</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="C2" s="17">
         <v>1</v>
@@ -4178,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="D3" s="17">
         <v>2</v>
@@ -4223,7 +4482,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="E4" s="17">
         <v>0</v>
@@ -4268,7 +4527,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="F5" s="17">
         <v>0</v>
@@ -4313,7 +4572,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="G6" s="17">
         <v>1</v>
@@ -4358,7 +4617,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="H7" s="17">
         <v>1</v>
@@ -4403,7 +4662,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="I8" s="17">
         <v>1</v>
@@ -4448,7 +4707,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="J9" s="17">
         <v>2</v>
@@ -4493,7 +4752,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="K10" s="17">
         <v>0</v>
@@ -4538,7 +4797,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="L11" s="17">
         <v>0</v>
@@ -4583,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="M12" s="8">
         <v>1</v>
@@ -4628,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
@@ -7850,7 +8109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7863,22 +8122,22 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>182</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>181</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/private/uploads/uploadFileTest.xlsx
+++ b/private/uploads/uploadFileTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natan.morote\Documents\accuarium-back\private\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCF4108-3CF0-46F8-B2FF-C331DAD1AA46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443FEF68-9488-4EBC-99C9-3AED2F01E6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4275" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="173">
   <si>
     <t>_id</t>
   </si>
@@ -556,6 +556,9 @@
   </si>
   <si>
     <t>indivCoexistence</t>
+  </si>
+  <si>
+    <t>beta</t>
   </si>
 </sst>
 </file>
@@ -573,6 +576,7 @@
       <sz val="11"/>
       <color rgb="FF44546A"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -580,33 +584,39 @@
       <sz val="11"/>
       <color rgb="FF44546A"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF008EC4"/>
       <name val="Consolas"/>
+      <family val="3"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -925,229 +935,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AP7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE7" sqref="AE7"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" customWidth="1"/>
-    <col min="2" max="2" width="16.09765625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" customWidth="1"/>
-    <col min="5" max="5" width="11.69921875" customWidth="1"/>
-    <col min="6" max="6" width="25.09765625" customWidth="1"/>
-    <col min="7" max="7" width="11.69921875" customWidth="1"/>
-    <col min="8" max="23" width="7.59765625" customWidth="1"/>
-    <col min="24" max="30" width="12" customWidth="1"/>
-    <col min="31" max="31" width="7.59765625" customWidth="1"/>
-    <col min="32" max="32" width="12.19921875" customWidth="1"/>
-    <col min="33" max="35" width="7.59765625" customWidth="1"/>
-    <col min="36" max="36" width="15" customWidth="1"/>
-    <col min="37" max="37" width="16.5" customWidth="1"/>
-    <col min="38" max="40" width="7.59765625" customWidth="1"/>
-    <col min="41" max="41" width="16.59765625" customWidth="1"/>
+    <col min="1" max="2" width="11.09765625" customWidth="1"/>
+    <col min="3" max="3" width="16.09765625" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="11.69921875" customWidth="1"/>
+    <col min="7" max="7" width="25.09765625" customWidth="1"/>
+    <col min="8" max="8" width="11.69921875" customWidth="1"/>
+    <col min="9" max="24" width="7.59765625" customWidth="1"/>
+    <col min="25" max="31" width="12" customWidth="1"/>
+    <col min="32" max="32" width="7.59765625" customWidth="1"/>
+    <col min="33" max="33" width="12.19921875" customWidth="1"/>
+    <col min="34" max="36" width="7.59765625" customWidth="1"/>
+    <col min="37" max="37" width="15" customWidth="1"/>
+    <col min="38" max="38" width="16.5" customWidth="1"/>
+    <col min="39" max="41" width="7.59765625" customWidth="1"/>
+    <col min="42" max="42" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="20" t="s">
+      <c r="X1" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="X1" s="20" t="s">
+      <c r="Y1" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="Y1" s="20" t="s">
+      <c r="Z1" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="AA1" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AB1" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="AB1" s="19" t="s">
+      <c r="AC1" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AD1" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="AD1" s="19" t="s">
+      <c r="AE1" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AM1" s="21" t="s">
+      <c r="AN1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="7">
+      <c r="L2" s="7">
         <v>4.5</v>
       </c>
-      <c r="L2" s="7">
+      <c r="M2" s="7">
         <v>8</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7">
         <v>25</v>
       </c>
-      <c r="O2" s="7">
+      <c r="P2" s="7">
         <v>6</v>
       </c>
-      <c r="P2" s="7">
+      <c r="Q2" s="7">
         <v>8</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="R2" s="8">
+      <c r="S2" s="8">
         <v>5</v>
       </c>
-      <c r="S2" s="8">
+      <c r="T2" s="8">
         <v>19</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="U2" s="8">
+      <c r="V2" s="8">
         <v>2</v>
       </c>
-      <c r="V2" s="8">
+      <c r="W2" s="8">
         <v>10</v>
       </c>
-      <c r="W2" s="7">
+      <c r="X2" s="7">
         <v>8</v>
       </c>
-      <c r="X2" s="7">
+      <c r="Y2" s="7">
         <v>100</v>
       </c>
-      <c r="Y2" s="7">
-        <v>1</v>
-      </c>
       <c r="Z2" s="7">
         <v>1</v>
       </c>
@@ -1163,92 +1176,95 @@
       <c r="AD2" s="7">
         <v>1</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AE2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AG2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="7">
+      <c r="L3" s="7">
         <v>4.5</v>
       </c>
-      <c r="L3" s="7">
+      <c r="M3" s="7">
         <v>7</v>
       </c>
-      <c r="M3" s="7">
+      <c r="N3" s="7">
         <v>20</v>
       </c>
-      <c r="N3" s="7">
+      <c r="O3" s="7">
         <v>27</v>
       </c>
-      <c r="O3" s="7">
+      <c r="P3" s="7">
         <v>5.5</v>
       </c>
-      <c r="P3" s="7">
+      <c r="Q3" s="7">
         <v>7.5</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="R3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="8">
+      <c r="S3" s="8">
         <v>100</v>
       </c>
-      <c r="S3" s="8">
+      <c r="T3" s="8">
         <v>150</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="U3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="U3" s="10">
+      <c r="V3" s="10">
         <v>50</v>
       </c>
-      <c r="V3" s="10">
+      <c r="W3" s="10">
         <v>125</v>
       </c>
-      <c r="W3" s="7">
+      <c r="X3" s="7">
         <v>8</v>
       </c>
-      <c r="X3" s="7">
+      <c r="Y3" s="7">
         <v>100</v>
       </c>
-      <c r="Y3" s="7">
+      <c r="Z3" s="7">
         <v>0</v>
       </c>
-      <c r="Z3" s="7">
-        <v>1</v>
-      </c>
       <c r="AA3" s="7">
         <v>1</v>
       </c>
@@ -1256,97 +1272,100 @@
         <v>1</v>
       </c>
       <c r="AC3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3" s="7">
         <v>0</v>
       </c>
-      <c r="AE3" s="8" t="s">
+      <c r="AE3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AF3" s="8" t="s">
+      <c r="AG3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AI3" s="7" t="s">
+      <c r="AJ3" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="7">
+      <c r="L4" s="7">
         <v>4.5</v>
       </c>
-      <c r="L4" s="7">
+      <c r="M4" s="7">
         <v>7</v>
       </c>
-      <c r="M4" s="8">
+      <c r="N4" s="8">
         <v>15</v>
       </c>
-      <c r="N4" s="8">
+      <c r="O4" s="8">
         <v>25</v>
       </c>
-      <c r="O4" s="8">
+      <c r="P4" s="8">
         <v>6</v>
       </c>
-      <c r="P4" s="8">
+      <c r="Q4" s="8">
         <v>8</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="R4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="R4" s="8">
+      <c r="S4" s="8">
         <v>30</v>
       </c>
-      <c r="S4" s="8">
+      <c r="T4" s="8">
         <v>60</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="U4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="U4" s="8">
+      <c r="V4" s="8">
         <v>15</v>
       </c>
-      <c r="V4" s="8">
+      <c r="W4" s="8">
         <v>80</v>
       </c>
-      <c r="W4" s="7">
+      <c r="X4" s="7">
         <v>8</v>
       </c>
-      <c r="X4" s="7">
+      <c r="Y4" s="7">
         <v>100</v>
       </c>
-      <c r="Y4" s="7">
+      <c r="Z4" s="7">
         <v>0</v>
       </c>
-      <c r="Z4" s="7">
-        <v>1</v>
-      </c>
       <c r="AA4" s="7">
         <v>1</v>
       </c>
@@ -1354,81 +1373,84 @@
         <v>1</v>
       </c>
       <c r="AC4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4" s="7">
         <v>0</v>
       </c>
-      <c r="AE4" s="8" t="s">
+      <c r="AE4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AF4" s="8" t="s">
+      <c r="AG4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AI4" s="7" t="s">
+      <c r="AJ4" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="K5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="7">
+      <c r="L5" s="7">
         <v>4.5</v>
       </c>
-      <c r="L5" s="8">
+      <c r="M5" s="8">
         <v>8</v>
       </c>
-      <c r="M5" s="7">
+      <c r="N5" s="7">
         <v>20</v>
       </c>
-      <c r="N5" s="7">
+      <c r="O5" s="7">
         <v>27</v>
       </c>
-      <c r="O5" s="7">
+      <c r="P5" s="7">
         <v>5.5</v>
       </c>
-      <c r="P5" s="7">
+      <c r="Q5" s="7">
         <v>7.5</v>
       </c>
-      <c r="Q5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="W5" s="7">
+      <c r="R5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="X5" s="7">
         <v>8</v>
       </c>
-      <c r="X5" s="7">
+      <c r="Y5" s="7">
         <v>100</v>
       </c>
-      <c r="Y5" s="7">
+      <c r="Z5" s="7">
         <v>0</v>
       </c>
-      <c r="Z5" s="7">
-        <v>1</v>
-      </c>
       <c r="AA5" s="7">
         <v>1</v>
       </c>
@@ -1436,81 +1458,84 @@
         <v>1</v>
       </c>
       <c r="AC5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5" s="7">
         <v>0</v>
       </c>
-      <c r="AE5" s="8" t="s">
+      <c r="AE5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AF5" s="8" t="s">
+      <c r="AG5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AI5" s="7" t="s">
+      <c r="AJ5" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="J6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="K6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="7">
+      <c r="L6" s="7">
         <v>4.5</v>
       </c>
-      <c r="L6" s="7">
+      <c r="M6" s="7">
         <v>7</v>
       </c>
-      <c r="M6" s="8">
+      <c r="N6" s="8">
         <v>15</v>
       </c>
-      <c r="N6" s="8">
+      <c r="O6" s="8">
         <v>25</v>
       </c>
-      <c r="O6" s="7">
+      <c r="P6" s="7">
         <v>5.5</v>
       </c>
-      <c r="P6" s="7">
+      <c r="Q6" s="7">
         <v>7.5</v>
       </c>
-      <c r="Q6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="W6" s="7">
+      <c r="R6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="X6" s="7">
         <v>8</v>
       </c>
-      <c r="X6" s="7">
+      <c r="Y6" s="7">
         <v>100</v>
       </c>
-      <c r="Y6" s="7">
+      <c r="Z6" s="7">
         <v>0</v>
       </c>
-      <c r="Z6" s="7">
-        <v>1</v>
-      </c>
       <c r="AA6" s="7">
         <v>1</v>
       </c>
@@ -1518,77 +1543,80 @@
         <v>1</v>
       </c>
       <c r="AC6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="7">
         <v>0</v>
       </c>
-      <c r="AE6" s="8" t="s">
+      <c r="AE6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AF6" s="8" t="s">
+      <c r="AG6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AI6" s="7" t="s">
+      <c r="AJ6" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="J7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="7">
+      <c r="L7" s="7">
         <v>4.5</v>
       </c>
-      <c r="L7" s="8">
+      <c r="M7" s="8">
         <v>8</v>
       </c>
-      <c r="M7" s="8">
+      <c r="N7" s="8">
         <v>15</v>
       </c>
-      <c r="N7" s="8">
+      <c r="O7" s="8">
         <v>25</v>
       </c>
-      <c r="O7" s="7">
+      <c r="P7" s="7">
         <v>6.5</v>
       </c>
-      <c r="P7" s="7">
+      <c r="Q7" s="7">
         <v>7.5</v>
       </c>
-      <c r="Q7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="W7" s="7">
+      <c r="R7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="X7" s="7">
         <v>8</v>
       </c>
-      <c r="X7" s="7">
+      <c r="Y7" s="7">
         <v>100</v>
-      </c>
-      <c r="Y7" s="7">
-        <v>0</v>
       </c>
       <c r="Z7" s="7">
         <v>0</v>
@@ -1605,13 +1633,16 @@
       <c r="AD7" s="7">
         <v>0</v>
       </c>
-      <c r="AE7" s="8" t="s">
+      <c r="AE7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AF7" s="8" t="s">
+      <c r="AG7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AI7" s="7" t="s">
+      <c r="AJ7" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1625,7 +1656,7 @@
           <x14:formula1>
             <xm:f>'hardness units'!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>Q2:Q7 T2:T7</xm:sqref>
+          <xm:sqref>R2:R7 U2:U7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4334,31 +4365,31 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="str">
-        <f>species!B1</f>
+        <f>species!C1</f>
         <v>scientificName</v>
       </c>
       <c r="B1" s="14" t="str">
-        <f>species!B2</f>
+        <f>species!C2</f>
         <v>badis badis</v>
       </c>
       <c r="C1" s="15" t="str">
-        <f>species!B3</f>
+        <f>species!C3</f>
         <v>badis buxar</v>
       </c>
       <c r="D1" s="15" t="str">
-        <f>species!B4</f>
+        <f>species!C4</f>
         <v>badis bengalensis</v>
       </c>
       <c r="E1" s="15" t="str">
-        <f>species!B5</f>
+        <f>species!C5</f>
         <v>microctenopoma ansorgii</v>
       </c>
       <c r="F1" s="14" t="str">
-        <f>species!B6</f>
+        <f>species!C6</f>
         <v>badis asamensis</v>
       </c>
       <c r="G1" s="15" t="str">
-        <f>species!B7</f>
+        <f>species!C7</f>
         <v>badis burmanicus</v>
       </c>
       <c r="H1" s="15" t="e">
@@ -4388,7 +4419,7 @@
     </row>
     <row r="2" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="str">
-        <f>species!B2</f>
+        <f>species!C2</f>
         <v>badis badis</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -4430,7 +4461,7 @@
     </row>
     <row r="3" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="str">
-        <f>species!B3</f>
+        <f>species!C3</f>
         <v>badis buxar</v>
       </c>
       <c r="B3" s="17">
@@ -4472,7 +4503,7 @@
     </row>
     <row r="4" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="str">
-        <f>species!B4</f>
+        <f>species!C4</f>
         <v>badis bengalensis</v>
       </c>
       <c r="B4" s="17">
@@ -4514,7 +4545,7 @@
     </row>
     <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="str">
-        <f>species!B5</f>
+        <f>species!C5</f>
         <v>microctenopoma ansorgii</v>
       </c>
       <c r="B5" s="17">
@@ -4556,7 +4587,7 @@
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="str">
-        <f>species!B6</f>
+        <f>species!C6</f>
         <v>badis asamensis</v>
       </c>
       <c r="B6" s="17">
@@ -4598,7 +4629,7 @@
     </row>
     <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="str">
-        <f>species!B7</f>
+        <f>species!C7</f>
         <v>badis burmanicus</v>
       </c>
       <c r="B7" s="17">

--- a/private/uploads/uploadFileTest.xlsx
+++ b/private/uploads/uploadFileTest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natan.morote\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natan.morote\Documents\accuarium-back\private\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3350FA-5BB7-4AA3-A27C-0820813DE72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3D9C65-8EB3-42E0-B879-7957E08670DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-4275" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 2" guid="{7F1AADEE-A668-452D-89A2-922B8E27B743}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{0E3E47B5-D3B0-49C5-9B39-6967568475F7}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{7F1AADEE-A668-452D-89A2-922B8E27B743}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -245,9 +245,6 @@
     <t>multicolor</t>
   </si>
   <si>
-    <t>quite,shy</t>
-  </si>
-  <si>
     <t>Trichogaster lalia</t>
   </si>
   <si>
@@ -303,9 +300,6 @@
   </si>
   <si>
     <t>opaline/blue/gold/choco gold/red gold/marvel</t>
-  </si>
-  <si>
-    <t>quite,shy,lover</t>
   </si>
   <si>
     <t>Trichopodus leerii</t>
@@ -983,6 +977,12 @@
   </si>
   <si>
     <t>mixedGroupCoexistence</t>
+  </si>
+  <si>
+    <t>quiet,shy</t>
+  </si>
+  <si>
+    <t>quiet,shy,lover</t>
   </si>
 </sst>
 </file>
@@ -1425,10 +1425,10 @@
   <dimension ref="A1:AN12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE1" sqref="AE1"/>
+      <selection pane="bottomRight" activeCell="AK15" sqref="AK15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1554,7 +1554,7 @@
         <v>29</v>
       </c>
       <c r="AE1" s="29" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>30</v>
@@ -1796,27 +1796,27 @@
       </c>
       <c r="AL3" s="8"/>
       <c r="AM3" s="10" t="s">
-        <v>63</v>
+        <v>307</v>
       </c>
       <c r="AN3" s="8"/>
     </row>
     <row r="4" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>39</v>
@@ -1903,32 +1903,32 @@
         <v>62</v>
       </c>
       <c r="AL4" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AM4" s="6" t="s">
-        <v>63</v>
+        <v>307</v>
       </c>
       <c r="AN4" s="4"/>
     </row>
     <row r="5" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="10">
         <v>1</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>39</v>
@@ -1958,7 +1958,7 @@
         <v>7.5</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R5" s="10">
         <v>36</v>
@@ -2012,35 +2012,35 @@
         <v>0</v>
       </c>
       <c r="AK5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL5" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="AL5" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="AM5" s="10" t="s">
-        <v>63</v>
+        <v>307</v>
       </c>
       <c r="AN5" s="8"/>
     </row>
     <row r="6" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="10">
         <v>1</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="G6" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>39</v>
@@ -2124,33 +2124,33 @@
         <v>0</v>
       </c>
       <c r="AK6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL6" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="AL6" s="8" t="s">
-        <v>82</v>
-      </c>
       <c r="AM6" s="10" t="s">
-        <v>83</v>
+        <v>308</v>
       </c>
       <c r="AN6" s="8"/>
     </row>
     <row r="7" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B7" s="10">
         <v>1</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>39</v>
@@ -2230,33 +2230,33 @@
       <c r="AI7" s="8"/>
       <c r="AJ7" s="8"/>
       <c r="AK7" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AL7" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AM7" s="8"/>
       <c r="AN7" s="8"/>
     </row>
     <row r="8" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B8" s="10">
         <v>1</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>94</v>
-      </c>
       <c r="G8" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>39</v>
@@ -2333,26 +2333,26 @@
         <v>45</v>
       </c>
       <c r="AL8" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AM8" s="8"/>
       <c r="AN8" s="8"/>
     </row>
     <row r="9" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="14" t="s">
+      <c r="E9" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -2384,7 +2384,7 @@
         <v>7.5</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R9" s="6">
         <v>90</v>
@@ -2438,35 +2438,35 @@
         <v>0</v>
       </c>
       <c r="AK9" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AL9" s="4"/>
       <c r="AM9" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AN9" s="4"/>
     </row>
     <row r="10" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="6">
-        <v>1</v>
-      </c>
-      <c r="C10" s="14" t="s">
+      <c r="E10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>39</v>
@@ -2475,7 +2475,7 @@
         <v>40</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K10" s="4">
         <v>4</v>
@@ -2555,43 +2555,43 @@
         <v>62</v>
       </c>
       <c r="AL10" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AM10" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AN10" s="4"/>
     </row>
     <row r="11" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>39</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K11" s="8">
         <v>6</v>
@@ -2612,7 +2612,7 @@
         <v>7.5</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R11" s="8">
         <v>18</v>
@@ -2655,7 +2655,7 @@
         <v>43</v>
       </c>
       <c r="AH11" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AI11" s="10">
         <v>0</v>
@@ -2664,42 +2664,42 @@
         <v>1</v>
       </c>
       <c r="AK11" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AL11" s="8"/>
       <c r="AM11" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AN11" s="8"/>
     </row>
     <row r="12" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B12" s="17">
         <v>1</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>128</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>39</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K12" s="8">
         <v>13</v>
@@ -2720,7 +2720,7 @@
         <v>7.5</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R12" s="8">
         <v>36</v>
@@ -2763,7 +2763,7 @@
         <v>43</v>
       </c>
       <c r="AH12" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AI12" s="8">
         <v>0</v>
@@ -2772,29 +2772,20 @@
         <v>1</v>
       </c>
       <c r="AK12" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AL12" s="8"/>
       <c r="AM12" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AN12" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AN12" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <customSheetViews>
-    <customSheetView guid="{0E3E47B5-D3B0-49C5-9B39-6967568475F7}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B1:B1253" xr:uid="{E6949E5F-3912-4267-9A12-5C597011FC84}"/>
-      <extLst>
-        <ext uri="GoogleSheetsCustomDataVersion1">
-          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="241866329"/>
-        </ext>
-      </extLst>
-    </customSheetView>
     <customSheetView guid="{7F1AADEE-A668-452D-89A2-922B8E27B743}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AN1282" xr:uid="{4E18877C-ED4E-46EF-AFFE-6E3F6465D925}">
+      <autoFilter ref="A1:AN1282" xr:uid="{701EB8AF-C08C-4B92-B65B-300712403193}">
         <filterColumn colId="1">
           <filters>
             <filter val="1"/>
@@ -2804,6 +2795,15 @@
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1366459341"/>
+        </ext>
+      </extLst>
+    </customSheetView>
+    <customSheetView guid="{0E3E47B5-D3B0-49C5-9B39-6967568475F7}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="B1:B1253" xr:uid="{A3F2A5BD-0ADF-4608-AE5E-D02B6828CCBE}"/>
+      <extLst>
+        <ext uri="GoogleSheetsCustomDataVersion1">
+          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="241866329"/>
         </ext>
       </extLst>
     </customSheetView>
@@ -3066,7 +3066,7 @@
         <v>Helostoma temmincki</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C2" s="21">
         <v>1</v>
@@ -3109,7 +3109,7 @@
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D3" s="21">
         <v>2</v>
@@ -3150,7 +3150,7 @@
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E4" s="21">
         <v>0</v>
@@ -3189,7 +3189,7 @@
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F5" s="21">
         <v>0</v>
@@ -3226,7 +3226,7 @@
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G6" s="21">
         <v>1</v>
@@ -3261,7 +3261,7 @@
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H7" s="21">
         <v>1</v>
@@ -3294,7 +3294,7 @@
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I8" s="21">
         <v>1</v>
@@ -3325,7 +3325,7 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J9" s="21">
         <v>2</v>
@@ -3354,7 +3354,7 @@
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K10" s="21">
         <v>0</v>
@@ -3381,7 +3381,7 @@
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
       <c r="K11" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L11" s="21">
         <v>0</v>
@@ -3406,7 +3406,7 @@
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
       <c r="L12" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M12" s="22">
         <v>1</v>
@@ -3429,7 +3429,7 @@
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3459,10 +3459,10 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
@@ -3491,15 +3491,15 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3507,220 +3507,220 @@
         <v>40</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="26" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C18" s="16"/>
     </row>
     <row r="19" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="26" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="26" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="24" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C26" s="26"/>
     </row>
     <row r="27" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="26" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="26" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="26" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C33" s="27"/>
     </row>
     <row r="34" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4719,10 +4719,10 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
@@ -4751,164 +4751,164 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="26" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C4" s="26"/>
       <c r="G4" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="26" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="G13" s="26" t="s">
         <v>233</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="26" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4916,281 +4916,281 @@
         <v>41</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="26" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="26" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="26" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="26" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="26" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="26" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="26" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="26" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="26" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="26" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G43" s="26" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C44" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="G44" s="26" t="s">
         <v>251</v>
-      </c>
-      <c r="G44" s="26" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G46" s="26" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="26" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G47" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G48" s="26" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6166,10 +6166,10 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
@@ -6203,22 +6203,22 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="26" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7237,131 +7237,131 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="24" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="26" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="26" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="26" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="26" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="26" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="26" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="26" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="26" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="26" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="24" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="25" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="25" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="25" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="25" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
@@ -7369,7 +7369,7 @@
         <v>34</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
@@ -7377,31 +7377,31 @@
         <v>44</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="26" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="26" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="26" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -7427,7 +7427,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -7437,7 +7437,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -7473,7 +7473,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -7494,7 +7494,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -7504,7 +7504,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
